--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -857,7 +857,7 @@
     <t xml:space="preserve">Others</t>
   </si>
   <si>
-    <t xml:space="preserve">INTERNET</t>
+    <t xml:space="preserve">Internet</t>
   </si>
   <si>
     <t xml:space="preserve">School</t>
@@ -998,7 +998,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1072,6 +1072,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1369,7 +1375,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1503,6 +1509,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,7 +1692,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,32 +1803,32 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.63967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="76.8056680161943"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="60.7368421052632"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.73279352226721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.0121457489879"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.7287449392713"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.0364372469636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="78.5951417004049"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.748987854251"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1619433198381"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.1943319838057"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.1174089068826"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.9757085020243"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34537,32 +34547,32 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="29.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.7854251012146"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.6072874493927"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.79352226720648"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.8744939271255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.79352226720648"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.32793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.9311740890688"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.54655870445344"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.81376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -36658,7 +36668,7 @@
       <c r="K5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="34" t="s">
         <v>139</v>
       </c>
       <c r="M5" s="33" t="s">
@@ -36682,838 +36692,838 @@
       <c r="S5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="38" t="n">
+      <c r="G6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="38" t="n">
+      <c r="H6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="38" t="n">
+      <c r="I6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="38" t="n">
+      <c r="J6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="38" t="n">
+      <c r="K6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="38" t="n">
+      <c r="L6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="38" t="n">
+      <c r="M6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="38" t="n">
+      <c r="N6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="38" t="n">
+      <c r="O6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="38" t="n">
+      <c r="P6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="38" t="n">
+      <c r="Q6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="38" t="n">
+      <c r="R6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="38" t="n">
+      <c r="S6" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="38" t="n">
+      <c r="T6" s="39" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="38" t="n">
+      <c r="E7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="38" t="n">
+      <c r="F7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="38" t="n">
+      <c r="G7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="38" t="n">
+      <c r="H7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="38" t="n">
+      <c r="I7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="38" t="n">
+      <c r="J7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="38" t="n">
+      <c r="K7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="38" t="n">
+      <c r="L7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="38" t="n">
+      <c r="M7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="38" t="n">
+      <c r="N7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="38" t="n">
+      <c r="O7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P7" s="38" t="n">
+      <c r="P7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="38" t="n">
+      <c r="Q7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="38" t="n">
+      <c r="R7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="38" t="n">
+      <c r="S7" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T7" s="38" t="n">
+      <c r="T7" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="38" t="n">
+      <c r="E8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="38" t="n">
+      <c r="F8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="38" t="n">
+      <c r="G8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="38" t="n">
+      <c r="H8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="38" t="n">
+      <c r="I8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="38" t="n">
+      <c r="J8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="38" t="n">
+      <c r="K8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="38" t="n">
+      <c r="L8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="38" t="n">
+      <c r="M8" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="38" t="s">
+      <c r="N8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="38" t="n">
+      <c r="E9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="38" t="n">
+      <c r="F9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="38" t="n">
+      <c r="G9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="38" t="n">
+      <c r="H9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="38" t="n">
+      <c r="I9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="38" t="n">
+      <c r="J9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="38" t="n">
+      <c r="K9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="n">
+      <c r="L9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="38" t="n">
+      <c r="M9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="50.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="38" t="n">
+      <c r="E10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="38" t="n">
+      <c r="F10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="38" t="n">
+      <c r="G10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="38" t="n">
+      <c r="H10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="38" t="n">
+      <c r="I10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="38" t="n">
+      <c r="J10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="38" t="n">
+      <c r="K10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="38" t="n">
+      <c r="L10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="38" t="n">
+      <c r="M10" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="38" t="n">
+      <c r="G11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="38" t="n">
+      <c r="H11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="38" t="n">
+      <c r="I11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="38" t="n">
+      <c r="J11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K11" s="38" t="n">
+      <c r="K11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="38" t="n">
+      <c r="L11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="38" t="n">
+      <c r="M11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="38" t="n">
+      <c r="N11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="38" t="n">
+      <c r="O11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="38" t="n">
+      <c r="P11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="38" t="n">
+      <c r="Q11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="38" t="n">
+      <c r="R11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="38" t="n">
+      <c r="S11" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="38" t="n">
+      <c r="T11" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="38" t="n">
+      <c r="G12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="38" t="n">
+      <c r="H12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="38" t="n">
+      <c r="I12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="38" t="n">
+      <c r="J12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="38" t="n">
+      <c r="K12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="38" t="n">
+      <c r="L12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="38" t="n">
+      <c r="M12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="38" t="n">
+      <c r="N12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="38" t="n">
+      <c r="O12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="38" t="n">
+      <c r="P12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" s="38" t="n">
+      <c r="Q12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="38" t="n">
+      <c r="R12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="38" t="n">
+      <c r="S12" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T12" s="38" t="n">
+      <c r="T12" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="38" t="n">
+      <c r="E13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="38" t="n">
+      <c r="F13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="38" t="n">
+      <c r="G13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="38" t="n">
+      <c r="H13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="38" t="n">
+      <c r="I13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="38" t="n">
+      <c r="J13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="38" t="n">
+      <c r="K13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="38" t="n">
+      <c r="L13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="38" t="n">
+      <c r="M13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="38" t="n">
+      <c r="N13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="38" t="n">
+      <c r="O13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="38" t="n">
+      <c r="P13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="38" t="n">
+      <c r="Q13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="38" t="n">
+      <c r="R13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="38" t="n">
+      <c r="S13" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="38" t="n">
+      <c r="T13" s="39" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="38" t="n">
+      <c r="E14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="38" t="n">
+      <c r="F14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="38" t="n">
+      <c r="G14" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="38" t="s">
+      <c r="N14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="38" t="n">
+      <c r="E15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="38" t="n">
+      <c r="F15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="38" t="n">
+      <c r="G15" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="38" t="n">
+      <c r="E16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="38" t="n">
+      <c r="F16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="38" t="n">
+      <c r="G16" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="38" t="s">
+      <c r="L16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N16" s="38" t="s">
+      <c r="N16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="38" t="n">
+      <c r="E17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="38" t="n">
+      <c r="F17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="38" t="n">
+      <c r="G17" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="38" t="s">
+      <c r="N17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T17" s="38" t="s">
+      <c r="T17" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="38" t="n">
+      <c r="E18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F18" s="38" t="n">
+      <c r="F18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="38" t="n">
+      <c r="G18" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="38" t="s">
+      <c r="L18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="T18" s="38" t="s">
+      <c r="T18" s="39" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="38" t="n">
+      <c r="N19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="38" t="n">
+      <c r="O19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="38" t="n">
+      <c r="P19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="38" t="n">
+      <c r="Q19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="38" t="n">
+      <c r="R19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="38" t="n">
+      <c r="S19" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T19" s="38" t="n">
+      <c r="T19" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -37522,111 +37532,111 @@
       <c r="D20" s="10" t="n">
         <v>8847100562364</v>
       </c>
-      <c r="E20" s="38" t="n">
+      <c r="E20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="38" t="n">
+      <c r="F20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="38" t="n">
+      <c r="G20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="38" t="n">
+      <c r="H20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="38" t="n">
+      <c r="I20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="38" t="n">
+      <c r="J20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="38" t="n">
+      <c r="K20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="38" t="n">
+      <c r="L20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="38" t="n">
+      <c r="M20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N20" s="38" t="n">
+      <c r="N20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="38" t="n">
+      <c r="O20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="38" t="n">
+      <c r="P20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="38" t="n">
+      <c r="Q20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="38" t="n">
+      <c r="R20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="38" t="n">
+      <c r="S20" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T20" s="38" t="n">
+      <c r="T20" s="39" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="38" t="n">
+      <c r="E21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="38" t="n">
+      <c r="F21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="38" t="n">
+      <c r="G21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="38" t="n">
+      <c r="H21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="38" t="n">
+      <c r="I21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="38" t="n">
+      <c r="J21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="38" t="n">
+      <c r="K21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="38" t="n">
+      <c r="L21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="38" t="n">
+      <c r="M21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="38" t="n">
+      <c r="N21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="38" t="n">
+      <c r="O21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="P21" s="38" t="n">
+      <c r="P21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="38" t="n">
+      <c r="Q21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="38" t="n">
+      <c r="R21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="38" t="n">
+      <c r="S21" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="T21" s="38" t="n">
+      <c r="T21" s="39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37655,27 +37665,27 @@
   <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.24696356275304"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.26315789473684"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37717,7 +37727,7 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="25" t="s">
         <v>180</v>
       </c>
@@ -37738,7 +37748,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37761,7 +37771,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37770,7 +37780,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="44" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37785,7 +37795,7 @@
       <c r="I5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="34" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="33" t="s">
@@ -37809,166 +37819,166 @@
       <c r="Q5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="46" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="46" t="n">
+      <c r="D6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="47" t="n">
+      <c r="E6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="46" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="48" t="n">
+      <c r="G6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="48" t="n">
+      <c r="H6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="48" t="n">
+      <c r="I6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="48" t="n">
+      <c r="J6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="48" t="n">
+      <c r="K6" s="49" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="46" t="n">
+      <c r="L6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="46" t="n">
+      <c r="N6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="46" t="n">
+      <c r="O6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="46" t="n">
+      <c r="P6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="46" t="n">
+      <c r="Q6" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="49" t="n">
+      <c r="R6" s="50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="51" t="n">
+      <c r="C7" s="52" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="52" t="n">
+      <c r="D7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="51" t="n">
+      <c r="F7" s="52" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="54" t="n">
+      <c r="G7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="54" t="n">
+      <c r="H7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="54" t="n">
+      <c r="I7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="54" t="n">
+      <c r="J7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="54" t="n">
+      <c r="K7" s="55" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="52" t="n">
+      <c r="L7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="52" t="n">
+      <c r="M7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="52" t="n">
+      <c r="N7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="52" t="n">
+      <c r="O7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="52" t="n">
+      <c r="P7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="52" t="n">
+      <c r="Q7" s="53" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="55" t="n">
+      <c r="R7" s="56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="57" t="n">
+      <c r="C8" s="58" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="58" t="n">
+      <c r="D8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="59" t="n">
+      <c r="E8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="57" t="n">
+      <c r="F8" s="58" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="60" t="n">
+      <c r="G8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="60" t="n">
+      <c r="H8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="60" t="n">
+      <c r="I8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="60" t="n">
+      <c r="J8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="60" t="n">
+      <c r="K8" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="58" t="n">
+      <c r="L8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="58" t="n">
+      <c r="M8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="58" t="n">
+      <c r="N8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="58" t="n">
+      <c r="O8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="58" t="n">
+      <c r="P8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="58" t="n">
+      <c r="Q8" s="59" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="61" t="n">
+      <c r="R8" s="62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37997,29 +38007,29 @@
   <dimension ref="B1:S12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.31983805668016"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6113360323887"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6882591093117"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6315789473684"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.89878542510122"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.51417004048583"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.2024291497976"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.40485829959514"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38063,8 +38073,8 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="25" t="s">
         <v>180</v>
       </c>
@@ -38085,8 +38095,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="41"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38109,13 +38119,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="66" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38160,399 +38170,399 @@
       <c r="R5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="35" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="68" t="n">
+      <c r="D6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="68" t="n">
+      <c r="E6" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="69" t="n">
+      <c r="F6" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="70" t="n">
+      <c r="G6" s="71" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="68" t="n">
+      <c r="H6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="68" t="n">
+      <c r="I6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="68" t="n">
+      <c r="J6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="68" t="n">
+      <c r="K6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="68" t="n">
+      <c r="L6" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="71" t="n">
+      <c r="M6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="71" t="n">
+      <c r="N6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="71" t="n">
+      <c r="O6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="71" t="n">
+      <c r="P6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="71" t="n">
+      <c r="Q6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="71" t="n">
+      <c r="R6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="72" t="n">
+      <c r="S6" s="73" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="68" t="n">
+      <c r="D7" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="68" t="n">
+      <c r="E7" s="69" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="69" t="n">
+      <c r="F7" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="70" t="n">
+      <c r="G7" s="71" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="68" t="n">
+      <c r="H7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="68" t="n">
+      <c r="I7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="68" t="n">
+      <c r="J7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="68" t="n">
+      <c r="K7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="68" t="n">
+      <c r="L7" s="69" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="71" t="n">
+      <c r="M7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="71" t="n">
+      <c r="N7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="71" t="n">
+      <c r="O7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="71" t="n">
+      <c r="P7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="71" t="n">
+      <c r="Q7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="71" t="n">
+      <c r="R7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="72" t="n">
+      <c r="S7" s="73" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="68" t="n">
+      <c r="D8" s="69" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="68" t="n">
+      <c r="E8" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="69" t="n">
+      <c r="F8" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="70" t="n">
+      <c r="G8" s="71" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="68" t="n">
+      <c r="H8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="68" t="n">
+      <c r="I8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="68" t="n">
+      <c r="J8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="68" t="n">
+      <c r="K8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="68" t="n">
+      <c r="L8" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="71" t="n">
+      <c r="M8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="71" t="n">
+      <c r="N8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="71" t="n">
+      <c r="O8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="71" t="n">
+      <c r="P8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="71" t="n">
+      <c r="Q8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="71" t="n">
+      <c r="R8" s="72" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="72" t="n">
+      <c r="S8" s="73" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="67" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="68" t="n">
+      <c r="D9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="68" t="n">
+      <c r="E9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="69" t="n">
+      <c r="F9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="70" t="n">
+      <c r="G9" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="68" t="n">
+      <c r="H9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="68" t="n">
+      <c r="I9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="68" t="n">
+      <c r="J9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="68" t="n">
+      <c r="K9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="68" t="n">
+      <c r="L9" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="71" t="n">
+      <c r="M9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="71" t="n">
+      <c r="N9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="71" t="n">
+      <c r="O9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="71" t="n">
+      <c r="P9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="71" t="n">
+      <c r="Q9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="71" t="n">
+      <c r="R9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="72" t="n">
+      <c r="S9" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="68" t="n">
+      <c r="D10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="68" t="n">
+      <c r="E10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="69" t="n">
+      <c r="F10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="70" t="n">
+      <c r="G10" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="68" t="n">
+      <c r="H10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="68" t="n">
+      <c r="I10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="68" t="n">
+      <c r="J10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="68" t="n">
+      <c r="K10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="68" t="n">
+      <c r="L10" s="69" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="71" t="n">
+      <c r="M10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="71" t="n">
+      <c r="N10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="71" t="n">
+      <c r="O10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="71" t="n">
+      <c r="P10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="71" t="n">
+      <c r="Q10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="71" t="n">
+      <c r="R10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="72" t="n">
+      <c r="S10" s="73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="68" t="n">
+      <c r="D11" s="69" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="68" t="n">
+      <c r="E11" s="69" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="69" t="n">
+      <c r="F11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="75" t="n">
+      <c r="G11" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="76" t="n">
+      <c r="H11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="76" t="n">
+      <c r="I11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="76" t="n">
+      <c r="J11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="76" t="n">
+      <c r="K11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="76" t="n">
+      <c r="L11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="76" t="n">
+      <c r="M11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="76" t="n">
+      <c r="N11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="76" t="n">
+      <c r="O11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="76" t="n">
+      <c r="P11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="76" t="n">
+      <c r="Q11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="76" t="n">
+      <c r="R11" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="77" t="n">
+      <c r="S11" s="78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="79" t="n">
+      <c r="D12" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="79" t="n">
+      <c r="E12" s="80" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="80" t="n">
+      <c r="F12" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="81" t="n">
+      <c r="G12" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="82" t="n">
+      <c r="H12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="82" t="n">
+      <c r="I12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="82" t="n">
+      <c r="J12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="82" t="n">
+      <c r="K12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="82" t="n">
+      <c r="L12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="83" t="s">
+      <c r="M12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="83" t="s">
+      <c r="N12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="83" t="s">
+      <c r="Q12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="83" t="s">
+      <c r="R12" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="84" t="s">
+      <c r="S12" s="85" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="181">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -884,10 +884,11 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml</t>
+    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,
+Coke ESP 330ml </t>
   </si>
   <si>
-    <t xml:space="preserve">8847100562715,8847100562746,8847100567574,8847100566898,8847100565389,8847100562234,8847100562234,8847100565389,8847100567468,8847100565389</t>
+    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
@@ -911,10 +912,10 @@
     <t xml:space="preserve">8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml</t>
+    <t xml:space="preserve">Fanta Grape  330ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560117,8847100561329,8847100568588,8847100568175,8847100563880,8847100567215,8847100561725</t>
+    <t xml:space="preserve">8847100560117</t>
   </si>
   <si>
     <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
@@ -923,10 +924,10 @@
     <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
   </si>
   <si>
-    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET</t>
+    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PETDasani 550ml,Dasani Mineral 500ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8847100567784</t>
+    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8851959905999,8847100567784</t>
   </si>
   <si>
     <t xml:space="preserve">Aquarius 330ml Can,Aquarius 330ml Sleek Can,Aquarius 390ml PET</t>
@@ -974,13 +975,10 @@
     <t xml:space="preserve">Sprite Zero 330ml Can</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutant Green 330ml Can,
-Mutant Black 330ml Can,
-Mutant Green 400ml PET,
-Mutant Yellow 400ml PET</t>
+    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618</t>
+    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
   </si>
   <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
@@ -998,7 +996,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1074,8 +1072,14 @@
       <charset val="177"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1375,7 +1379,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1512,10 +1516,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1536,12 +1536,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1692,7 +1700,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1800,7 +1808,7 @@
   </sheetPr>
   <dimension ref="1:39"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
@@ -1808,27 +1816,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="52.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.73279352226721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.0121457489879"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.7287449392713"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.0364372469636"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="78.5951417004049"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="44.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6113360323887"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="35.748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1619433198381"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.1943319838057"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.1174089068826"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.2672064777328"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.0971659919028"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.7732793522267"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.2105263157895"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="12.9757085020243"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34547,32 +34555,32 @@
   </sheetPr>
   <dimension ref="1:21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L5" activeCellId="0" sqref="L5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="39.7854251012146"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.6072874493927"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.79352226720648"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.8744939271255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5060728744939"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.79352226720648"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.48987854251012"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="21" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="21" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.61133603238866"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.32793522267206"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.9311740890688"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="21" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.63967611336032"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -36668,7 +36676,7 @@
       <c r="K5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="M5" s="33" t="s">
@@ -36692,838 +36700,838 @@
       <c r="S5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="35" t="s">
+      <c r="T5" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="36" t="s">
+    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="39" t="n">
+      <c r="E6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="39" t="n">
+      <c r="F6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="39" t="n">
+      <c r="G6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="39" t="n">
+      <c r="H6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="39" t="n">
+      <c r="I6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="39" t="n">
+      <c r="J6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="39" t="n">
+      <c r="K6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="39" t="n">
+      <c r="L6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="39" t="n">
+      <c r="M6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="39" t="n">
+      <c r="N6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="39" t="n">
+      <c r="O6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="39" t="n">
+      <c r="P6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="39" t="n">
+      <c r="Q6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="39" t="n">
+      <c r="R6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="39" t="n">
+      <c r="S6" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="39" t="n">
+      <c r="T6" s="38" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F7" s="39" t="n">
+      <c r="F7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="39" t="n">
+      <c r="G7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="39" t="n">
+      <c r="H7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="39" t="n">
+      <c r="I7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J7" s="39" t="n">
+      <c r="J7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="39" t="n">
+      <c r="K7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L7" s="39" t="n">
+      <c r="L7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="39" t="n">
+      <c r="M7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N7" s="39" t="n">
+      <c r="N7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O7" s="39" t="n">
+      <c r="O7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P7" s="39" t="n">
+      <c r="P7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" s="39" t="n">
+      <c r="Q7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="39" t="n">
+      <c r="R7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S7" s="39" t="n">
+      <c r="S7" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T7" s="39" t="n">
+      <c r="T7" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="39" t="n">
+      <c r="E8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="39" t="n">
+      <c r="F8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="39" t="n">
+      <c r="G8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="H8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="39" t="n">
+      <c r="I8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="39" t="n">
+      <c r="J8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="39" t="n">
+      <c r="K8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="39" t="n">
+      <c r="L8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="39" t="n">
+      <c r="M8" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="39" t="n">
+      <c r="F9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="39" t="n">
+      <c r="G9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="39" t="n">
+      <c r="H9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="39" t="n">
+      <c r="I9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="39" t="n">
+      <c r="J9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K9" s="39" t="n">
+      <c r="K9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="39" t="n">
+      <c r="L9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="39" t="n">
+      <c r="M9" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q9" s="39" t="s">
+      <c r="Q9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="39" t="s">
+      <c r="S9" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T9" s="39" t="s">
+      <c r="T9" s="38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="50.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="36" t="s">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="39" t="n">
+      <c r="E10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="39" t="n">
+      <c r="F10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="39" t="n">
+      <c r="G10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="39" t="n">
+      <c r="H10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I10" s="39" t="n">
+      <c r="I10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J10" s="39" t="n">
+      <c r="J10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K10" s="39" t="n">
+      <c r="K10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L10" s="39" t="n">
+      <c r="L10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="39" t="n">
+      <c r="M10" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>154</v>
+      <c r="N10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="39" t="n">
+      <c r="E11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="39" t="n">
+      <c r="F11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="39" t="n">
+      <c r="G11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="39" t="n">
+      <c r="H11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="39" t="n">
+      <c r="I11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="39" t="n">
+      <c r="J11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K11" s="39" t="n">
+      <c r="K11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L11" s="39" t="n">
+      <c r="L11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="39" t="n">
+      <c r="M11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N11" s="39" t="n">
+      <c r="N11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="39" t="n">
+      <c r="O11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="39" t="n">
+      <c r="P11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="39" t="n">
+      <c r="Q11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="39" t="n">
+      <c r="R11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S11" s="39" t="n">
+      <c r="S11" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T11" s="39" t="n">
+      <c r="T11" s="38" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="36" t="s">
+    <row r="12" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="39" t="n">
+      <c r="E12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="39" t="n">
+      <c r="F12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="39" t="n">
+      <c r="G12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H12" s="39" t="n">
+      <c r="H12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I12" s="39" t="n">
+      <c r="I12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="39" t="n">
+      <c r="J12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K12" s="39" t="n">
+      <c r="K12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="39" t="n">
+      <c r="L12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="39" t="n">
+      <c r="M12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N12" s="39" t="n">
+      <c r="N12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="39" t="n">
+      <c r="O12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P12" s="39" t="n">
+      <c r="P12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" s="39" t="n">
+      <c r="Q12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R12" s="39" t="n">
+      <c r="R12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S12" s="39" t="n">
+      <c r="S12" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T12" s="39" t="n">
+      <c r="T12" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="39" t="n">
+      <c r="E13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="39" t="n">
+      <c r="F13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="39" t="n">
+      <c r="G13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="39" t="n">
+      <c r="H13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="39" t="n">
+      <c r="I13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="39" t="n">
+      <c r="J13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="39" t="n">
+      <c r="K13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="39" t="n">
+      <c r="L13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="39" t="n">
+      <c r="M13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="39" t="n">
+      <c r="N13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="39" t="n">
+      <c r="O13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="39" t="n">
+      <c r="P13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="39" t="n">
+      <c r="Q13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="39" t="n">
+      <c r="R13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="39" t="n">
+      <c r="S13" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="39" t="n">
+      <c r="T13" s="38" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="39" t="n">
+      <c r="E14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F14" s="39" t="n">
+      <c r="F14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="39" t="n">
+      <c r="G14" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="39" t="s">
+      <c r="K14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L14" s="39" t="s">
+      <c r="L14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="39" t="s">
+      <c r="M14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="N14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O14" s="39" t="s">
+      <c r="O14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P14" s="39" t="s">
+      <c r="P14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="39" t="s">
+      <c r="Q14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R14" s="39" t="s">
+      <c r="R14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="39" t="n">
+      <c r="E15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F15" s="39" t="n">
+      <c r="F15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="n">
+      <c r="G15" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O15" s="39" t="s">
+      <c r="O15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P15" s="39" t="s">
+      <c r="P15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S15" s="39" t="s">
+      <c r="S15" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="T15" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>169</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="39" t="n">
+      <c r="E16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="39" t="n">
+      <c r="G16" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="39" t="s">
+      <c r="I16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J16" s="39" t="s">
+      <c r="J16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="39" t="s">
+      <c r="M16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O16" s="39" t="s">
+      <c r="O16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="39" t="s">
+      <c r="S16" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="39" t="n">
+      <c r="E17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="39" t="n">
+      <c r="F17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="39" t="n">
+      <c r="G17" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M17" s="39" t="s">
+      <c r="M17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O17" s="39" t="s">
+      <c r="O17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P17" s="39" t="s">
+      <c r="P17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q17" s="39" t="s">
+      <c r="Q17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="39" t="s">
+      <c r="R17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S17" s="39" t="s">
+      <c r="S17" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T17" s="39" t="s">
+      <c r="T17" s="38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="36" t="s">
+    <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>173</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="39" t="s">
+      <c r="E18" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="39" t="s">
+      <c r="F18" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="39" t="s">
+      <c r="G18" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="H18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="I18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="39" t="s">
+      <c r="J18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="K18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="O18" s="39" t="s">
+      <c r="L18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="M18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="39" t="s">
+      <c r="N18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="R18" s="39" t="s">
+      <c r="O18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="39" t="s">
+      <c r="P18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="T18" s="39" t="s">
+      <c r="Q18" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="T18" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="L19" s="39" t="s">
+      <c r="L19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="39" t="s">
+      <c r="M19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="39" t="n">
+      <c r="N19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O19" s="39" t="n">
+      <c r="O19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P19" s="39" t="n">
+      <c r="P19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q19" s="39" t="n">
+      <c r="Q19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R19" s="39" t="n">
+      <c r="R19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S19" s="39" t="n">
+      <c r="S19" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T19" s="39" t="n">
+      <c r="T19" s="38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>122</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -37532,111 +37540,111 @@
       <c r="D20" s="10" t="n">
         <v>8847100562364</v>
       </c>
-      <c r="E20" s="39" t="n">
+      <c r="E20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="39" t="n">
+      <c r="F20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="39" t="n">
+      <c r="G20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="39" t="n">
+      <c r="H20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="39" t="n">
+      <c r="I20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J20" s="39" t="n">
+      <c r="J20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K20" s="39" t="n">
+      <c r="K20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="39" t="n">
+      <c r="L20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="39" t="n">
+      <c r="M20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N20" s="39" t="n">
+      <c r="N20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="39" t="n">
+      <c r="O20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P20" s="39" t="n">
+      <c r="P20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q20" s="39" t="n">
+      <c r="Q20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="39" t="n">
+      <c r="R20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S20" s="39" t="n">
+      <c r="S20" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T20" s="39" t="n">
+      <c r="T20" s="38" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="36" t="s">
+    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="39" t="n">
+      <c r="E21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="39" t="n">
+      <c r="F21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="39" t="n">
+      <c r="G21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="H21" s="39" t="n">
+      <c r="H21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="39" t="n">
+      <c r="I21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="J21" s="39" t="n">
+      <c r="J21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="39" t="n">
+      <c r="K21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="L21" s="39" t="n">
+      <c r="L21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="M21" s="39" t="n">
+      <c r="M21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="N21" s="39" t="n">
+      <c r="N21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="O21" s="39" t="n">
+      <c r="O21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="P21" s="39" t="n">
+      <c r="P21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="Q21" s="39" t="n">
+      <c r="Q21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="R21" s="39" t="n">
+      <c r="R21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="S21" s="39" t="n">
+      <c r="S21" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="T21" s="39" t="n">
+      <c r="T21" s="38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37670,22 +37678,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.26315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.26315789473684"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="5.24696356275304"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37727,7 +37735,7 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="42"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="25" t="s">
         <v>180</v>
       </c>
@@ -37748,7 +37756,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37771,7 +37779,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37780,7 +37788,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37795,7 +37803,7 @@
       <c r="I5" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="33" t="s">
         <v>139</v>
       </c>
       <c r="K5" s="33" t="s">
@@ -37819,166 +37827,166 @@
       <c r="Q5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="R5" s="35" t="s">
+      <c r="R5" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="48" t="n">
+      <c r="E6" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="47" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="49" t="n">
+      <c r="G6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="49" t="n">
+      <c r="H6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="49" t="n">
+      <c r="I6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="49" t="n">
+      <c r="J6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="49" t="n">
+      <c r="K6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="47" t="n">
+      <c r="L6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="47" t="n">
+      <c r="M6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="47" t="n">
+      <c r="N6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="47" t="n">
+      <c r="O6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="47" t="n">
+      <c r="P6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="47" t="n">
+      <c r="Q6" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="50" t="n">
+      <c r="R6" s="51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="52" t="n">
+      <c r="C7" s="53" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="D7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="54" t="n">
+      <c r="E7" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="55" t="n">
+      <c r="G7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="55" t="n">
+      <c r="H7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="55" t="n">
+      <c r="I7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="55" t="n">
+      <c r="J7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="55" t="n">
+      <c r="K7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="53" t="n">
+      <c r="L7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="53" t="n">
+      <c r="M7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="53" t="n">
+      <c r="N7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="53" t="n">
+      <c r="O7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="53" t="n">
+      <c r="P7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="53" t="n">
+      <c r="Q7" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="56" t="n">
+      <c r="R7" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="58" t="n">
+      <c r="C8" s="59" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="59" t="n">
+      <c r="D8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="60" t="n">
+      <c r="E8" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="58" t="n">
+      <c r="F8" s="59" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="61" t="n">
+      <c r="G8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="61" t="n">
+      <c r="H8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="61" t="n">
+      <c r="I8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="61" t="n">
+      <c r="J8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="61" t="n">
+      <c r="K8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="59" t="n">
+      <c r="L8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="59" t="n">
+      <c r="M8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="59" t="n">
+      <c r="N8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="59" t="n">
+      <c r="O8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="59" t="n">
+      <c r="P8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="59" t="n">
+      <c r="Q8" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="62" t="n">
+      <c r="R8" s="63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38012,24 +38020,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6113360323887"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6882591093117"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6315789473684"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.89878542510122"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.48987854251012"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.44939271255061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.51417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.2024291497976"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.40485829959514"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="4.92712550607287"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38073,8 +38081,8 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="25" t="s">
         <v>180</v>
       </c>
@@ -38095,8 +38103,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="42"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38119,13 +38127,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="67" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38170,399 +38178,399 @@
       <c r="R5" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="69" t="n">
+      <c r="D6" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="69" t="n">
+      <c r="E6" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="70" t="n">
+      <c r="F6" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="71" t="n">
+      <c r="G6" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="69" t="n">
+      <c r="H6" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="69" t="n">
+      <c r="I6" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="69" t="n">
+      <c r="K6" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="69" t="n">
+      <c r="L6" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="72" t="n">
+      <c r="M6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="72" t="n">
+      <c r="N6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="72" t="n">
+      <c r="O6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="72" t="n">
+      <c r="P6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="72" t="n">
+      <c r="Q6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="72" t="n">
+      <c r="R6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="73" t="n">
+      <c r="S6" s="74" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="69" t="n">
+      <c r="D7" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="69" t="n">
+      <c r="E7" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="70" t="n">
+      <c r="F7" s="71" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="72" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="69" t="n">
+      <c r="H7" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="69" t="n">
+      <c r="I7" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="69" t="n">
+      <c r="J7" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="69" t="n">
+      <c r="K7" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="69" t="n">
+      <c r="L7" s="70" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="72" t="n">
+      <c r="M7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="72" t="n">
+      <c r="N7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="72" t="n">
+      <c r="O7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="72" t="n">
+      <c r="P7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="72" t="n">
+      <c r="Q7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="72" t="n">
+      <c r="R7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="73" t="n">
+      <c r="S7" s="74" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="69" t="n">
+      <c r="D8" s="70" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="69" t="n">
+      <c r="E8" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="70" t="n">
+      <c r="F8" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="71" t="n">
+      <c r="G8" s="72" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="69" t="n">
+      <c r="H8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="69" t="n">
+      <c r="I8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="69" t="n">
+      <c r="J8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="69" t="n">
+      <c r="K8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="69" t="n">
+      <c r="L8" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="72" t="n">
+      <c r="M8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="72" t="n">
+      <c r="N8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="72" t="n">
+      <c r="O8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="72" t="n">
+      <c r="P8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="72" t="n">
+      <c r="Q8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="72" t="n">
+      <c r="R8" s="73" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="73" t="n">
+      <c r="S8" s="74" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="68" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="69" t="n">
+      <c r="D9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="69" t="n">
+      <c r="E9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="70" t="n">
+      <c r="F9" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="71" t="n">
+      <c r="G9" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="69" t="n">
+      <c r="H9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="69" t="n">
+      <c r="I9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="69" t="n">
+      <c r="J9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="69" t="n">
+      <c r="K9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="69" t="n">
+      <c r="L9" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="72" t="n">
+      <c r="M9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="72" t="n">
+      <c r="N9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="72" t="n">
+      <c r="O9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="72" t="n">
+      <c r="P9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="72" t="n">
+      <c r="Q9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="72" t="n">
+      <c r="R9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="73" t="n">
+      <c r="S9" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="69" t="n">
+      <c r="D10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="69" t="n">
+      <c r="E10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="70" t="n">
+      <c r="F10" s="71" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="71" t="n">
+      <c r="G10" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="69" t="n">
+      <c r="H10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="69" t="n">
+      <c r="I10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="69" t="n">
+      <c r="J10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="69" t="n">
+      <c r="K10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="69" t="n">
+      <c r="L10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="72" t="n">
+      <c r="M10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="72" t="n">
+      <c r="N10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="72" t="n">
+      <c r="O10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="72" t="n">
+      <c r="P10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="72" t="n">
+      <c r="Q10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="72" t="n">
+      <c r="R10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="73" t="n">
+      <c r="S10" s="74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="69" t="n">
+      <c r="D11" s="70" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="69" t="n">
+      <c r="E11" s="70" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="70" t="n">
+      <c r="F11" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="76" t="n">
+      <c r="G11" s="77" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="77" t="n">
+      <c r="H11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="77" t="n">
+      <c r="I11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="77" t="n">
+      <c r="J11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="77" t="n">
+      <c r="K11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="77" t="n">
+      <c r="L11" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="77" t="n">
+      <c r="M11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="77" t="n">
+      <c r="N11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="77" t="n">
+      <c r="O11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="77" t="n">
+      <c r="P11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="77" t="n">
+      <c r="Q11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="77" t="n">
+      <c r="R11" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="78" t="n">
+      <c r="S11" s="79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="80" t="n">
+      <c r="D12" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="80" t="n">
+      <c r="E12" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="81" t="n">
+      <c r="F12" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="82" t="n">
+      <c r="G12" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="83" t="n">
+      <c r="H12" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="83" t="n">
+      <c r="I12" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="83" t="n">
+      <c r="J12" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="83" t="n">
+      <c r="K12" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="83" t="n">
+      <c r="L12" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="84" t="s">
+      <c r="N12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="84" t="s">
+      <c r="O12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="84" t="s">
+      <c r="P12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="84" t="s">
+      <c r="Q12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="84" t="s">
+      <c r="R12" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="85" t="s">
+      <c r="S12" s="86" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -981,6 +981,18 @@
     <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
   </si>
   <si>
+    <t xml:space="preserve">Schweppe (Can) Single Serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppe Soda 330ml,Schweppe Sarsi 330ml,Schweppe Tonic 330ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100563897,8847100566768,8847100566560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
   </si>
 </sst>
@@ -996,7 +1008,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1075,12 +1087,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1215,6 +1221,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right/>
       <top style="medium"/>
@@ -1314,21 +1334,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
       <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
@@ -1379,7 +1385,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1536,7 +1542,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1548,39 +1554,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="19" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="19" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1588,11 +1594,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="21" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1600,7 +1618,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1608,31 +1626,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1652,11 +1670,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1664,11 +1682,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1676,11 +1694,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,7 +1706,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="22" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1696,35 +1714,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1816,26 +1834,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.7732793522267"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.2672064777328"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.9109311740891"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="62.7732793522267"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.2105263157895"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="63.3076923076923"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.4251012145749"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -34553,20 +34571,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:21"/>
+  <dimension ref="1:22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
@@ -34576,8 +34594,8 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
@@ -37422,13 +37440,13 @@
       <c r="D18" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="38" t="s">
         <v>154</v>
       </c>
       <c r="H18" s="38" t="s">
@@ -37646,6 +37664,65 @@
       </c>
       <c r="T21" s="38" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="N22" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="S22" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" s="45" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -37679,7 +37756,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -37689,8 +37766,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -37735,9 +37812,9 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="43"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -37756,7 +37833,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="43"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37779,7 +37856,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37788,7 +37865,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="48" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37832,161 +37909,161 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="50" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="48" t="n">
+      <c r="D6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="49" t="n">
+      <c r="E6" s="52" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="47" t="n">
+      <c r="F6" s="50" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="50" t="n">
+      <c r="G6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="50" t="n">
+      <c r="H6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="50" t="n">
+      <c r="I6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="50" t="n">
+      <c r="J6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="50" t="n">
+      <c r="K6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="48" t="n">
+      <c r="L6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="48" t="n">
+      <c r="M6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="48" t="n">
+      <c r="N6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="48" t="n">
+      <c r="O6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="48" t="n">
+      <c r="P6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="48" t="n">
+      <c r="Q6" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="51" t="n">
+      <c r="R6" s="54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="53" t="n">
+      <c r="C7" s="56" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="54" t="n">
+      <c r="D7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="55" t="n">
+      <c r="E7" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="53" t="n">
+      <c r="F7" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="56" t="n">
+      <c r="G7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="56" t="n">
+      <c r="H7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="56" t="n">
+      <c r="I7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="56" t="n">
+      <c r="J7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="56" t="n">
+      <c r="K7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="54" t="n">
+      <c r="L7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="54" t="n">
+      <c r="M7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="54" t="n">
+      <c r="N7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="54" t="n">
+      <c r="O7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="54" t="n">
+      <c r="P7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="54" t="n">
+      <c r="Q7" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="57" t="n">
+      <c r="R7" s="60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="62" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="60" t="n">
+      <c r="D8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="61" t="n">
+      <c r="E8" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="59" t="n">
+      <c r="F8" s="62" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="62" t="n">
+      <c r="G8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="62" t="n">
+      <c r="H8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="62" t="n">
+      <c r="I8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="62" t="n">
+      <c r="J8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="62" t="n">
+      <c r="K8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="60" t="n">
+      <c r="L8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="60" t="n">
+      <c r="M8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="60" t="n">
+      <c r="N8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="60" t="n">
+      <c r="O8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="60" t="n">
+      <c r="P8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="60" t="n">
+      <c r="Q8" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="63" t="n">
+      <c r="R8" s="66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38021,8 +38098,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
@@ -38033,8 +38110,8 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.63967611336032"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.4615384615385"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
@@ -38081,10 +38158,10 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -38103,8 +38180,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="43"/>
-      <c r="C4" s="64"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38127,13 +38204,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="70" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38183,394 +38260,394 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="70" t="n">
+      <c r="D6" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="70" t="n">
+      <c r="E6" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="71" t="n">
+      <c r="F6" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="72" t="n">
+      <c r="G6" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="70" t="n">
+      <c r="H6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="70" t="n">
+      <c r="I6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="70" t="n">
+      <c r="J6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="70" t="n">
+      <c r="K6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="70" t="n">
+      <c r="L6" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="73" t="n">
+      <c r="M6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="73" t="n">
+      <c r="N6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="73" t="n">
+      <c r="O6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="73" t="n">
+      <c r="P6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="73" t="n">
+      <c r="Q6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="73" t="n">
+      <c r="R6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="74" t="n">
+      <c r="S6" s="77" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="70" t="n">
+      <c r="D7" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="70" t="n">
+      <c r="E7" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="71" t="n">
+      <c r="F7" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="72" t="n">
+      <c r="G7" s="75" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="70" t="n">
+      <c r="H7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="70" t="n">
+      <c r="I7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="70" t="n">
+      <c r="J7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="70" t="n">
+      <c r="K7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="70" t="n">
+      <c r="L7" s="73" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="73" t="n">
+      <c r="M7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="73" t="n">
+      <c r="N7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="73" t="n">
+      <c r="O7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="73" t="n">
+      <c r="P7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="73" t="n">
+      <c r="Q7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="73" t="n">
+      <c r="R7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="74" t="n">
+      <c r="S7" s="77" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="70" t="n">
+      <c r="D8" s="73" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="70" t="n">
+      <c r="E8" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="71" t="n">
+      <c r="F8" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="72" t="n">
+      <c r="G8" s="75" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="70" t="n">
+      <c r="H8" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="70" t="n">
+      <c r="I8" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="70" t="n">
+      <c r="J8" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="70" t="n">
+      <c r="K8" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="70" t="n">
+      <c r="L8" s="73" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="73" t="n">
+      <c r="M8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="73" t="n">
+      <c r="N8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="73" t="n">
+      <c r="O8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="73" t="n">
+      <c r="P8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="73" t="n">
+      <c r="Q8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="73" t="n">
+      <c r="R8" s="76" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="74" t="n">
+      <c r="S8" s="77" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="70" t="n">
+      <c r="D9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="70" t="n">
+      <c r="E9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="71" t="n">
+      <c r="F9" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="72" t="n">
+      <c r="G9" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="70" t="n">
+      <c r="H9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="70" t="n">
+      <c r="I9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="70" t="n">
+      <c r="J9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="70" t="n">
+      <c r="K9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="70" t="n">
+      <c r="L9" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="73" t="n">
+      <c r="M9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="73" t="n">
+      <c r="N9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="73" t="n">
+      <c r="O9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="73" t="n">
+      <c r="P9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="73" t="n">
+      <c r="Q9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="73" t="n">
+      <c r="R9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="74" t="n">
+      <c r="S9" s="77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="70" t="n">
+      <c r="D10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="70" t="n">
+      <c r="E10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="71" t="n">
+      <c r="F10" s="74" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="72" t="n">
+      <c r="G10" s="75" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="70" t="n">
+      <c r="H10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="70" t="n">
+      <c r="I10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="70" t="n">
+      <c r="J10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="70" t="n">
+      <c r="K10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="70" t="n">
+      <c r="L10" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="73" t="n">
+      <c r="M10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="73" t="n">
+      <c r="N10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="73" t="n">
+      <c r="O10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="73" t="n">
+      <c r="P10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="73" t="n">
+      <c r="Q10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="73" t="n">
+      <c r="R10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="74" t="n">
+      <c r="S10" s="77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="70" t="n">
+      <c r="D11" s="73" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="70" t="n">
+      <c r="E11" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="71" t="n">
+      <c r="F11" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="77" t="n">
+      <c r="G11" s="80" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="78" t="n">
+      <c r="H11" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="78" t="n">
+      <c r="I11" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="78" t="n">
+      <c r="J11" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="78" t="n">
+      <c r="K11" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="78" t="n">
+      <c r="L11" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="78" t="n">
+      <c r="M11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="78" t="n">
+      <c r="N11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="78" t="n">
+      <c r="O11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="78" t="n">
+      <c r="P11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="78" t="n">
+      <c r="Q11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="78" t="n">
+      <c r="R11" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="79" t="n">
+      <c r="S11" s="82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="81" t="n">
+      <c r="D12" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="81" t="n">
+      <c r="E12" s="84" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="82" t="n">
+      <c r="F12" s="85" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="83" t="n">
+      <c r="G12" s="86" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="84" t="n">
+      <c r="H12" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="84" t="n">
+      <c r="I12" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="84" t="n">
+      <c r="J12" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="84" t="n">
+      <c r="K12" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="84" t="n">
+      <c r="L12" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="85" t="s">
+      <c r="N12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="85" t="s">
+      <c r="O12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="85" t="s">
+      <c r="P12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="85" t="s">
+      <c r="Q12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="85" t="s">
+      <c r="R12" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="86" t="s">
+      <c r="S12" s="89" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="183">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -884,23 +884,95 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,
-Coke ESP 330ml </t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,
+Coke ESP 330ml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola Coffee 330ml</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100562395</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sprite Zero 330ml Can</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8851959905944,8847100562104,8847100561459,8847100563736,8847100568793</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561459,8851959905944,8847100563736,8847100562104,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100562364</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,8847100905883,8847100567376</t>
+    <t xml:space="preserve">8847100560094,8847100561244,8847100564603</t>
   </si>
   <si>
     <t xml:space="preserve">N/A</t>
@@ -909,19 +981,87 @@
     <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100567352,8847100564184,8847100564061,8847100905883,8847100568793</t>
+    <t xml:space="preserve">8847100564184,8847100564061</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Grape  330ml</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta +C 390ml,Fanta +C 330ml</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100560117</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100561329,8847100563880_d,8847100568175,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100560117,8847100561329,8847100568588,8847100567215,8847100561725</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mutant Green 330ml Can, Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can,Mutant Red 400ml PET</t>
+    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566867,8847100567864</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943,8847100565952</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PETDasani 550ml,Dasani Mineral 500ml</t>
@@ -966,19 +1106,13 @@
     <t xml:space="preserve">8847100563149,8847100568830</t>
   </si>
   <si>
-    <t xml:space="preserve">Fanta Orange 330ml,Fanta Fruit Punch 330ml,Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,Fanta Orange 390ml,Fanta Fruit Punch 390ml,Fanta Orange 500ml</t>
+    <t xml:space="preserve">Minute Maid (Can or PET) Single Serve</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560094,8847100567352,8847100560117,8847100561329,8847100568588,8847100568175,8847100561244,8847100564184,8847100564603</t>
+    <t xml:space="preserve">Minute Maid Grape 330ml Can,Minute Maid Apple 330ml Can,Minute Maid Orange Mango 330ml Can</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprite Zero 330ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100566650,8847100568601,8847100568595,8847100568618,8847100565943</t>
+    <t xml:space="preserve">8847100569837,8847100562951,8847100562388,</t>
   </si>
   <si>
     <t xml:space="preserve">Schweppe (Can) Single Serve</t>
@@ -1008,7 +1142,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1082,6 +1216,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1385,7 +1530,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1542,8 +1687,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1554,11 +1703,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1718,7 +1875,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1834,26 +1991,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="54.2024291497976"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="79.9109311740891"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="80.5546558704453"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="36.7408906882591"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="63.3076923076923"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="63.8421052631579"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
   </cols>
   <sheetData>
@@ -34571,20 +34728,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:22"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="47.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="22" width="40.7044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="21" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="21" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="21" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="21" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="21" width="3.74898785425101"/>
@@ -34594,8 +34751,8 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="21" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="21" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="21" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="21" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="21" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="21" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="21" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="21" width="8.78542510121457"/>
@@ -36722,7 +36879,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="79.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="35" t="s">
         <v>22</v>
       </c>
@@ -36781,7 +36938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="41.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="35" t="s">
         <v>29</v>
       </c>
@@ -36840,7 +36997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="35" t="s">
         <v>31</v>
       </c>
@@ -36899,7 +37056,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="35" t="s">
         <v>33</v>
       </c>
@@ -36958,14 +37115,14 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="40" t="s">
         <v>158</v>
       </c>
       <c r="E10" s="38" t="n">
@@ -37017,7 +37174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="42.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="68.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="35" t="s">
         <v>37</v>
       </c>
@@ -37319,7 +37476,7 @@
       <c r="C16" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="41" t="s">
         <v>170</v>
       </c>
       <c r="E16" s="38" t="n">
@@ -37378,7 +37535,7 @@
       <c r="C17" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="42" t="s">
         <v>172</v>
       </c>
       <c r="E17" s="38" t="n">
@@ -37437,7 +37594,7 @@
       <c r="C18" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="42" t="s">
         <v>174</v>
       </c>
       <c r="E18" s="38" t="s">
@@ -37489,15 +37646,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="55.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="36" t="s">
+    <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>176</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>177</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>154</v>
@@ -37526,205 +37683,89 @@
       <c r="M19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" s="38" t="n">
-        <v>3</v>
+      <c r="N19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" s="38" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>8847100562364</v>
-      </c>
-      <c r="E20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" s="38" t="n">
-        <v>3</v>
+    <row r="20" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="R20" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="S20" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" s="48" t="n">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="L21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T21" s="38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="L22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="M22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="N22" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="S22" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="T22" s="45" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D4"/>
@@ -37756,7 +37797,7 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -37766,8 +37807,8 @@
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -37812,9 +37853,9 @@
       <c r="R2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -37833,7 +37874,7 @@
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="26" t="s">
         <v>128</v>
       </c>
@@ -37856,7 +37897,7 @@
       <c r="R4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
@@ -37865,7 +37906,7 @@
       <c r="D5" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="51" t="s">
         <v>134</v>
       </c>
       <c r="F5" s="32" t="s">
@@ -37909,161 +37950,161 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="50" t="n">
+      <c r="C6" s="53" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="51" t="n">
+      <c r="D6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="52" t="n">
+      <c r="E6" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="n">
+      <c r="F6" s="53" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="53" t="n">
+      <c r="G6" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="53" t="n">
+      <c r="H6" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="53" t="n">
+      <c r="I6" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="53" t="n">
+      <c r="J6" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="53" t="n">
+      <c r="K6" s="56" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="51" t="n">
+      <c r="L6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="51" t="n">
+      <c r="M6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="51" t="n">
+      <c r="N6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="51" t="n">
+      <c r="O6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="51" t="n">
+      <c r="P6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="51" t="n">
+      <c r="Q6" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="54" t="n">
+      <c r="R6" s="57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="59" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="57" t="n">
+      <c r="D7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="58" t="n">
+      <c r="E7" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="56" t="n">
+      <c r="F7" s="59" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="59" t="n">
+      <c r="J7" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="59" t="n">
+      <c r="K7" s="62" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="57" t="n">
+      <c r="L7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="57" t="n">
+      <c r="M7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="57" t="n">
+      <c r="N7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="57" t="n">
+      <c r="O7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="57" t="n">
+      <c r="P7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="57" t="n">
+      <c r="Q7" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="60" t="n">
+      <c r="R7" s="63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="62" t="n">
+      <c r="C8" s="65" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="63" t="n">
+      <c r="D8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="64" t="n">
+      <c r="E8" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="62" t="n">
+      <c r="F8" s="65" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="65" t="n">
+      <c r="G8" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="65" t="n">
+      <c r="H8" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="65" t="n">
+      <c r="J8" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="65" t="n">
+      <c r="K8" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="63" t="n">
+      <c r="L8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="63" t="n">
+      <c r="M8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="63" t="n">
+      <c r="N8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="63" t="n">
+      <c r="O8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="63" t="n">
+      <c r="P8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="63" t="n">
+      <c r="Q8" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="66" t="n">
+      <c r="R8" s="69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38098,8 +38139,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
@@ -38110,8 +38151,8 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.4615384615385"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="14.5668016194332"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
@@ -38158,10 +38199,10 @@
       <c r="S2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -38180,8 +38221,8 @@
       <c r="S3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="26" t="s">
         <v>128</v>
       </c>
@@ -38204,13 +38245,13 @@
       <c r="S4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="73" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="33" t="s">
@@ -38260,394 +38301,394 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="73" t="n">
+      <c r="D6" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="73" t="n">
+      <c r="E6" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="74" t="n">
+      <c r="F6" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="75" t="n">
+      <c r="G6" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="73" t="n">
+      <c r="H6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="73" t="n">
+      <c r="I6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="73" t="n">
+      <c r="J6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="73" t="n">
+      <c r="K6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="73" t="n">
+      <c r="L6" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="76" t="n">
+      <c r="M6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="76" t="n">
+      <c r="N6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="76" t="n">
+      <c r="O6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="76" t="n">
+      <c r="P6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="76" t="n">
+      <c r="Q6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="76" t="n">
+      <c r="R6" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="77" t="n">
+      <c r="S6" s="80" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="73" t="n">
+      <c r="D7" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="73" t="n">
+      <c r="E7" s="76" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="74" t="n">
+      <c r="F7" s="77" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="75" t="n">
+      <c r="G7" s="78" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="73" t="n">
+      <c r="H7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="73" t="n">
+      <c r="I7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="73" t="n">
+      <c r="J7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="73" t="n">
+      <c r="K7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="73" t="n">
+      <c r="L7" s="76" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="76" t="n">
+      <c r="M7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="76" t="n">
+      <c r="N7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="76" t="n">
+      <c r="O7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="76" t="n">
+      <c r="P7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="76" t="n">
+      <c r="Q7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="76" t="n">
+      <c r="R7" s="79" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="77" t="n">
+      <c r="S7" s="80" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="73" t="n">
+      <c r="D8" s="76" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="73" t="n">
+      <c r="E8" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="74" t="n">
+      <c r="F8" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="75" t="n">
+      <c r="G8" s="78" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="73" t="n">
+      <c r="H8" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="73" t="n">
+      <c r="I8" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="73" t="n">
+      <c r="J8" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="73" t="n">
+      <c r="K8" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="73" t="n">
+      <c r="L8" s="76" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="76" t="n">
+      <c r="M8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="76" t="n">
+      <c r="N8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="76" t="n">
+      <c r="O8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="76" t="n">
+      <c r="P8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="76" t="n">
+      <c r="Q8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="76" t="n">
+      <c r="R8" s="79" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="77" t="n">
+      <c r="S8" s="80" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="74" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="73" t="n">
+      <c r="D9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="73" t="n">
+      <c r="E9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="74" t="n">
+      <c r="F9" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="75" t="n">
+      <c r="G9" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="73" t="n">
+      <c r="H9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="73" t="n">
+      <c r="I9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="73" t="n">
+      <c r="J9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="73" t="n">
+      <c r="K9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="73" t="n">
+      <c r="L9" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="76" t="n">
+      <c r="M9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="76" t="n">
+      <c r="N9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="76" t="n">
+      <c r="O9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="76" t="n">
+      <c r="P9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="76" t="n">
+      <c r="Q9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="76" t="n">
+      <c r="R9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="77" t="n">
+      <c r="S9" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="73" t="n">
+      <c r="D10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="73" t="n">
+      <c r="E10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="74" t="n">
+      <c r="F10" s="77" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="75" t="n">
+      <c r="G10" s="78" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="73" t="n">
+      <c r="H10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="73" t="n">
+      <c r="I10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="73" t="n">
+      <c r="J10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="73" t="n">
+      <c r="K10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="73" t="n">
+      <c r="L10" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="76" t="n">
+      <c r="M10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="76" t="n">
+      <c r="N10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="76" t="n">
+      <c r="O10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="76" t="n">
+      <c r="P10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="76" t="n">
+      <c r="Q10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="76" t="n">
+      <c r="R10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="77" t="n">
+      <c r="S10" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="73" t="n">
+      <c r="D11" s="76" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="73" t="n">
+      <c r="E11" s="76" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="74" t="n">
+      <c r="F11" s="77" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="80" t="n">
+      <c r="G11" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="81" t="n">
+      <c r="H11" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="81" t="n">
+      <c r="I11" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="81" t="n">
+      <c r="J11" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="81" t="n">
+      <c r="K11" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="81" t="n">
+      <c r="L11" s="84" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="81" t="n">
+      <c r="M11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="81" t="n">
+      <c r="N11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="81" t="n">
+      <c r="O11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="81" t="n">
+      <c r="P11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="81" t="n">
+      <c r="Q11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="81" t="n">
+      <c r="R11" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="82" t="n">
+      <c r="S11" s="85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="84" t="n">
+      <c r="D12" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="84" t="n">
+      <c r="E12" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="85" t="n">
+      <c r="F12" s="88" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="86" t="n">
+      <c r="G12" s="89" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="87" t="n">
+      <c r="H12" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="87" t="n">
+      <c r="I12" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="87" t="n">
+      <c r="J12" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="87" t="n">
+      <c r="K12" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="87" t="n">
+      <c r="L12" s="90" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="88" t="s">
+      <c r="M12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="88" t="s">
+      <c r="N12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="O12" s="88" t="s">
+      <c r="O12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="88" t="s">
+      <c r="P12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="Q12" s="88" t="s">
+      <c r="Q12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="R12" s="88" t="s">
+      <c r="R12" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="S12" s="89" t="s">
+      <c r="S12" s="92" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -18,12 +18,9 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$T$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$T$20</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -438,7 +435,14 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 330ml,
 Coca Cola 390ml,
 Coca Cola Light 330ml,
 Coca Cola Zero 330ml Can,
@@ -450,14 +454,42 @@
 Coke POR 330ml,
 Coke ESP 330ml,                    
 Coca Cola Coffee 330ml,
-Coke 240ml,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coke 240ml,
 Coca-cola 250ml Can,
 Coke Vanilla 330ml,
-Coca Cola 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100562746,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100562746,
 8847100567574,
 8847100566898,
 8847100565389,
@@ -469,68 +501,295 @@
 8847100562234_4,     
 8847100562234_5 
 8847100562395
-8851959905876,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8851959905876,
 8847100562999,
 8847100565495,
-8847100561015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite 330ml Can,
-Sprite Zero 330ml Can,
-Sprite 390ml PET,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 330ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite Zero 330ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 390ml PET,
 Sprite 450ml PET,
 Sprite 500ml PET,        
-Sprite 330ml Sleek Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 330ml Sleek Can,
 Sprite 240ml Slim Can,
 Sprite 250ml Can,
-Sprite 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561459,
-8847100562364,
-8847100563736,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561459,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100562364,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100563736,
 8851959905944,
 8847100562104,
-8847100568793,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100568793,
 8851959905906,
 8847100568847,
-8847100561022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange 330ml,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561022</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Orange 330ml,
 Fanta Orange 390ml,
 Fanta Orange 500ml
-Fanta Orange 240ml Slim Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Orange 240ml Slim Can,
 Fanta Orange 250ml Can,
-Fanta Orange 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560094,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Orange 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100560094,
 8847100561244,
 8847100564603,
-8851959905883,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8851959905883,
 8847100564799,
-8847100561046_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Fruit Punch 330ml,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561046_0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 330ml,
 Fanta Fruit Punch 390ml
-Fanta Fruit Punch 330ml Sleek Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 330ml Sleek Can,
 Fanta Fruit Punch 240ml Slim Can,
 Fanta Fruit Punch 250ml Can,
-Fanta Fruit Punch 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100564061,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100564061,
 8847100564184,
-8847100564061,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100564061,
 8851959133187,
 8847100569011,
-8847100561046_0
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561046_0
+</t>
+    </r>
   </si>
   <si>
     <r>
@@ -552,7 +811,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -599,7 +858,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -609,35 +868,109 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Samurai Strawberry 330ml,
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Samurai Strawberry 330ml,
 Samurai Fruity 330ml,
 Samurai Strawberry 480ml,
 Samurai Fruity 480ml,
 Mutant Green 330ml Can,
-Mutant Yellow 330ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mutant Yellow 330ml Can,
 Mutant Yellow 400ml PET,
-Mutant Green 400ml PET,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Mutant Green 400ml PET,
 Mutant Red 330ml Can  
 Mutant Red 400ml PET
-Samurai Strawberry 390 PET,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Samurai Strawberry 390 PET,
 Samurai Fruity 390 PET,
 Samurai Strawberry 330 Sleek Can,
 Samurai Fruity 330 Sleek Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100566591,
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100566591,
 8847100566607,
 8847100566874,
 8847100566676,                                          
 8847100566650,
-8847100568601,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100568601,
 8847100568595,
-8847100568618,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100568618,
 8847100565943,                                              8847100565952,
-8847100566478,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100566478,
 8847100567079,
 8847100566867,
 8847100567864</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Dasani 350ml,
@@ -762,7 +1095,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -784,6 +1117,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -829,13 +1169,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -853,6 +1186,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1202,12 +1542,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1228,27 +1568,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,43 +1616,47 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1340,19 +1688,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1377,114 +1725,118 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,23 +1864,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1536,23 +1888,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,23 +1912,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,35 +1936,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,19 +1972,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1656,15 +2008,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,7 +2044,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1716,7 +2068,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1731,7 +2083,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1747,7 +2099,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1796,23 +2148,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="4" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="4" width="16.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,22 +2185,22 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -1870,1361 +2221,1361 @@
       <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="11" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="11" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="11" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="11" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="11" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="11" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="11" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="11" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="11" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="11" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="11" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="11" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="11" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="23" t="n">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="14" t="s">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="T17" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="23" t="n">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="14" t="s">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" s="25" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="14" t="s">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="23" t="n">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="14" t="s">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="23" t="n">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="14" t="s">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M22" s="14" t="s">
+      <c r="M22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="27" t="n">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="14" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="14" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="28" t="n">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="14" t="s">
+      <c r="L26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="14" t="s">
+      <c r="M26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="28" t="n">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14" t="n">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="15" t="s">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="30" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="30" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="15"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="26" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="15"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="29" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="15"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="11" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="15"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="32" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="30" t="s">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="15"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3248,24 +3599,23 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="0" width="12.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,1013 +3628,1013 @@
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="258.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="46" t="n">
+      <c r="E6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="46" t="n">
+      <c r="G6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="46" t="n">
+      <c r="I6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="46" t="n">
+      <c r="J6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="46" t="n">
+      <c r="K6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="46" t="n">
+      <c r="L6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="46" t="n">
+      <c r="N6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="46" t="n">
+      <c r="O6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="46" t="n">
+      <c r="P6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="46" t="n">
+      <c r="Q6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="46" t="n">
+      <c r="R6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="46" t="n">
+      <c r="S6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="47" t="n">
+      <c r="T6" s="49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" s="52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" s="53" customFormat="true" ht="96.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42"/>
-      <c r="B8" s="48" t="s">
+      <c r="E7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" s="55" customFormat="true" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" s="50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" s="53" customFormat="true" ht="96.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="48" t="s">
+      <c r="E8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" s="52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" s="55" customFormat="true" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T9" s="50" t="n">
+      <c r="E9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="220.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" s="50" t="n">
+      <c r="E10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="218.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" s="56" t="n">
+      <c r="E11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="58" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" s="52" t="n">
+      <c r="E12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="51" t="n">
+      <c r="E13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="51" t="n">
+      <c r="F13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="51" t="n">
+      <c r="H13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="51" t="n">
+      <c r="I13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="51" t="n">
+      <c r="J13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="51" t="n">
+      <c r="K13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="51" t="n">
+      <c r="L13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="51" t="n">
+      <c r="M13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="51" t="n">
+      <c r="N13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="51" t="n">
+      <c r="O13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="51" t="n">
+      <c r="P13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="51" t="n">
+      <c r="Q13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="51" t="n">
+      <c r="R13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="51" t="n">
+      <c r="S13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="52" t="n">
+      <c r="T13" s="54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T15" s="52" t="s">
+      <c r="E15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="54" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T16" s="52" t="s">
+      <c r="E16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T16" s="54" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" s="62" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42"/>
-      <c r="B18" s="58" t="s">
+      <c r="E17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" s="65" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56"/>
+      <c r="B18" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" s="53" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63"/>
-      <c r="B19" s="18" t="s">
+      <c r="E18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" s="55" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="66"/>
+      <c r="B19" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="P19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="50" t="s">
+      <c r="Q19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="S19" s="50" t="s">
+      <c r="S19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" s="68" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64" t="s">
+    <row r="20" s="71" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="66" t="n">
+      <c r="N20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="66" t="s">
+      <c r="O20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="66" t="n">
+      <c r="P20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="66" t="s">
+      <c r="R20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="S20" s="66" t="n">
+      <c r="S20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="T20" s="67" t="n">
+      <c r="T20" s="70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4296,6 +4646,11 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:T4"/>
   </mergeCells>
+  <conditionalFormatting sqref="D22:D1048576,D1:D20">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4320,11 +4675,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="6" style="0" width="10.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,258 +4687,258 @@
       <c r="B2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="69"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="69"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="77" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="79" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="76" t="n">
+      <c r="D6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="79" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="79" t="n">
+      <c r="G6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="79" t="n">
+      <c r="H6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="79" t="n">
+      <c r="I6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="79" t="n">
+      <c r="J6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="79" t="n">
+      <c r="K6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="80" t="n">
+      <c r="L6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="82" t="n">
+      <c r="C7" s="85" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="82" t="n">
+      <c r="D7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="85" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="G7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="85" t="n">
+      <c r="H7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="I7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="85" t="n">
+      <c r="J7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="85" t="n">
+      <c r="K7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="86" t="n">
+      <c r="L7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="88" t="n">
+      <c r="C8" s="91" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="88" t="n">
+      <c r="D8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="91" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="91" t="n">
+      <c r="G8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="91" t="n">
+      <c r="H8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="91" t="n">
+      <c r="I8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="91" t="n">
+      <c r="J8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="91" t="n">
+      <c r="K8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="92" t="n">
+      <c r="L8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4619,14 +4972,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="93" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="96" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="12.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,496 +4989,496 @@
       <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="104" t="n">
+      <c r="D6" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="104" t="n">
+      <c r="E6" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="105" t="n">
+      <c r="F6" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="106" t="n">
+      <c r="G6" s="109" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="104" t="n">
+      <c r="H6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="104" t="n">
+      <c r="I6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="104" t="n">
+      <c r="J6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="104" t="n">
+      <c r="K6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="104" t="n">
+      <c r="L6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="107" t="n">
+      <c r="M6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="107" t="n">
+      <c r="N6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="107" t="n">
+      <c r="O6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="107" t="n">
+      <c r="P6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="107" t="n">
+      <c r="Q6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="107" t="n">
+      <c r="R6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="108" t="n">
+      <c r="S6" s="111" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="104" t="n">
+      <c r="D7" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="104" t="n">
+      <c r="E7" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="105" t="n">
+      <c r="F7" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="106" t="n">
+      <c r="G7" s="109" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="104" t="n">
+      <c r="H7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="104" t="n">
+      <c r="I7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="104" t="n">
+      <c r="J7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="104" t="n">
+      <c r="K7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="104" t="n">
+      <c r="L7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="107" t="n">
+      <c r="M7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="107" t="n">
+      <c r="N7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="107" t="n">
+      <c r="O7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="107" t="n">
+      <c r="P7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="107" t="n">
+      <c r="Q7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="107" t="n">
+      <c r="R7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="108" t="n">
+      <c r="S7" s="111" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="104" t="n">
+      <c r="D8" s="107" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="106" t="n">
+      <c r="E8" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="109" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="104" t="n">
+      <c r="H8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="104" t="n">
+      <c r="I8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="104" t="n">
+      <c r="J8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="104" t="n">
+      <c r="K8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="104" t="n">
+      <c r="L8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="107" t="n">
+      <c r="M8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="107" t="n">
+      <c r="N8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="107" t="n">
+      <c r="O8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="107" t="n">
+      <c r="P8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="107" t="n">
+      <c r="Q8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="107" t="n">
+      <c r="R8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="108" t="n">
+      <c r="S8" s="111" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="108" t="n">
+      <c r="D9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="108" t="n">
+      <c r="D10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="104" t="n">
+      <c r="D11" s="107" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="109" t="n">
+      <c r="E11" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="110" t="n">
+      <c r="H11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="110" t="n">
+      <c r="I11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="110" t="n">
+      <c r="J11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="110" t="n">
+      <c r="K11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="110" t="n">
+      <c r="L11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="111" t="n">
+      <c r="M11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="33.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="113" t="n">
+      <c r="D12" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="113" t="n">
+      <c r="E12" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="114" t="n">
+      <c r="F12" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="R12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="118" t="s">
+      <c r="G12" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="121" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -18,12 +18,9 @@
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$B$1:$T$33</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">AVAILABILITY!$B$5:$T$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">AVAILABILITY!$B$5:$T$20</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">VISIBILITY!$B$5:$F$5</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">COOLER!$B$5:$S$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -438,7 +435,14 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca Cola 330ml,
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 330ml,
 Coca Cola 390ml,
 Coca Cola Light 330ml,
 Coca Cola Zero 330ml Can,
@@ -453,11 +457,29 @@
 Coke 240ml,
 Coca-cola 250ml Can,
 Coke Vanilla 330ml,
-Coca Cola 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100562746,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Coca Cola 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100562746,
 8847100567574,
 8847100566898,
 8847100565389,
@@ -472,10 +494,28 @@
 8851959905876,
 8847100562999,
 8847100565495,
-8847100561015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite 330ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 330ml Can,
 Sprite Zero 330ml Can,
 Sprite 390ml PET,
 Sprite 450ml PET,
@@ -483,11 +523,29 @@
 Sprite 330ml Sleek Can,
 Sprite 240ml Slim Can,
 Sprite 250ml Can,
-Sprite 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561459,
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Sprite 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561459,
 8847100562364,
 8847100563736,
 8851959905944,
@@ -495,42 +553,18 @@
 8847100568793,
 8851959905906,
 8847100568847,
-8847100561022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange 330ml,
-Fanta Orange 390ml,
-Fanta Orange 500ml
-Fanta Orange 240ml Slim Can,
-Fanta Orange 250ml Can,
-Fanta Orange 350ml
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560094,
-8847100561244,
-8847100564603,
-8851959905883,
-8847100564799,
-8847100561046_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Fruit Punch 330ml,
-Fanta Fruit Punch 390ml
-Fanta Fruit Punch 330ml Sleek Can,
-Fanta Fruit Punch 240ml Slim Can,
-Fanta Fruit Punch 250ml Can,
-Fanta Fruit Punch 350ml
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100564061,
-8847100564184,
-8847100564061,
-8851959133187,
-8847100569011,
-8847100561046_0
-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561022</t>
+    </r>
   </si>
   <si>
     <r>
@@ -540,26 +574,115 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Fanta Redberry 330ml,
+      <t xml:space="preserve">Fanta Orange 330ml,
+Fanta Orange 390ml,
+Fanta Orange 500ml
+Fanta Orange 240ml Slim Can,
+Fanta Orange 250ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Orange 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100560094,
+8847100561244,
+8847100564603,
+8851959905883,
+8847100564799,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561046_0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 330ml,
+Fanta Fruit Punch 390ml
+Fanta Fruit Punch 330ml Sleek Can,
+Fanta Fruit Punch 240ml Slim Can,
+Fanta Fruit Punch 250ml Can,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 350ml
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100564061,
+8847100564184,
+8847100564061,
+8851959133187,
+8847100569011,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8847100561046_0
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Redberry 330ml,
 Fanta Blueberry 330ml,
 Fanta Blueberry 390ml     
 Fanta Grape  330ml,         
 Fanta Redberry 330ml,
 Fanta Blueberry 330ml, 
 Fanta +C 390ml,
+Fanta +C 330ml
 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta +C 330ml
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -594,17 +717,7 @@
 8847100561329,
 8847100568588,
 8847100567215, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561725
+8847100561725
 </t>
     </r>
   </si>
@@ -762,7 +875,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00;\-#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -784,6 +897,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -829,13 +949,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -852,7 +965,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -873,13 +993,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1202,12 +1323,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1228,27 +1349,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1272,43 +1397,47 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1340,19 +1469,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1377,114 +1506,118 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1512,23 +1645,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1536,23 +1669,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,23 +1693,23 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,35 +1717,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="4" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="18" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1620,19 +1753,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="5" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1656,15 +1789,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="31" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,7 +1825,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1716,7 +1849,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF9C0006"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -1731,7 +1864,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFFBE5D6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1747,7 +1880,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFBE5D6"/>
+      <rgbColor rgb="FFFFC7CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1789,30 +1922,31 @@
   <dimension ref="B1:T65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="F2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="4" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="3" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="35.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="4" width="16.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,22 +1968,22 @@
       <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="6" t="s">
@@ -1870,1361 +2004,1361 @@
       <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="11" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="11" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="11" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="11" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="H6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="11" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="14" t="s">
+      <c r="S6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="H7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="11" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="11" t="s">
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="11" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="14" t="s">
+      <c r="S8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="11" t="s">
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="14" t="s">
+      <c r="S9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="11" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="S10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="15" t="s">
+      <c r="T10" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="11" t="s">
+      <c r="H11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="11" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="14" t="s">
+      <c r="S11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="H12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="11" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="14" t="s">
+      <c r="S12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="15" t="s">
+      <c r="T12" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="11" t="s">
+      <c r="H13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="11" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="14" t="s">
+      <c r="S13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="15" t="s">
+      <c r="T13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="H14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="11" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="14" t="s">
+      <c r="S14" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="15" t="s">
+      <c r="T14" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20" t="s">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="19" t="s">
+      <c r="S15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="21" t="s">
+      <c r="T15" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="21" t="s">
+      <c r="T16" s="22" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="23" t="n">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="14" t="s">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="22" t="s">
+      <c r="T17" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="23" t="n">
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="14" t="s">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="22" t="s">
+      <c r="T18" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" s="25" t="s">
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="14" t="s">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="23" t="n">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="14" t="s">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="15" t="s">
+      <c r="T20" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="23" t="n">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="14" t="s">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="14" t="s">
+      <c r="L22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="27" t="n">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="S22" s="14" t="s">
+      <c r="S22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="15" t="s">
+      <c r="T22" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="J23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="K23" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="14" t="s">
+      <c r="L23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="14" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="14" t="s">
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="14" t="s">
+      <c r="L25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="28" t="n">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="30" t="n">
         <v>0.3</v>
       </c>
-      <c r="S25" s="14" t="s">
+      <c r="S25" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T25" s="15" t="s">
+      <c r="T25" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="43.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="16" t="s">
+      <c r="C26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="J26" s="14" t="s">
+      <c r="J26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="14" t="s">
+      <c r="L26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="28" t="n">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="30" t="n">
         <v>0.4</v>
       </c>
-      <c r="S26" s="14" t="s">
+      <c r="S26" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="T26" s="15" t="s">
+      <c r="T26" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14" t="n">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="O27" s="14" t="s">
+      <c r="O27" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P27" s="14" t="s">
+      <c r="P27" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="15" t="s">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="B28" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="30" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="15"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="B29" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="30" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="R29" s="28"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="15"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="B30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="26" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="R30" s="28"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="15"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="29" t="s">
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="15"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="11" t="s">
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="15"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="B33" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="32" t="s">
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="30" t="s">
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="15"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3248,24 +3382,23 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="33" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="8" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="35" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.9878542510121"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="20" min="8" style="0" width="12.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,1013 +3411,1013 @@
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="258.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="46" t="n">
+      <c r="E6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="46" t="n">
+      <c r="F6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="46" t="n">
+      <c r="G6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="46" t="n">
+      <c r="H6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="46" t="n">
+      <c r="I6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="J6" s="46" t="n">
+      <c r="J6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="46" t="n">
+      <c r="K6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="L6" s="46" t="n">
+      <c r="L6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="M6" s="46" t="n">
+      <c r="M6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="46" t="n">
+      <c r="N6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="O6" s="46" t="n">
+      <c r="O6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="P6" s="46" t="n">
+      <c r="P6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" s="46" t="n">
+      <c r="Q6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="46" t="n">
+      <c r="R6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="S6" s="46" t="n">
+      <c r="S6" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="T6" s="47" t="n">
+      <c r="T6" s="49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S7" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="T7" s="52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" s="53" customFormat="true" ht="96.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42"/>
-      <c r="B8" s="48" t="s">
+      <c r="E7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" s="55" customFormat="true" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44"/>
+      <c r="B8" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" s="50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" s="53" customFormat="true" ht="96.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-      <c r="B9" s="48" t="s">
+      <c r="E8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" s="52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" s="55" customFormat="true" ht="93" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="44"/>
+      <c r="B9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T9" s="50" t="n">
+      <c r="E9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="220.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" s="50" t="n">
+      <c r="E10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="218.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" s="56" t="n">
+      <c r="E11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" s="52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="58" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="T12" s="52" t="n">
+      <c r="E12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" s="54" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E13" s="51" t="n">
+      <c r="E13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="51" t="n">
+      <c r="F13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="51" t="n">
+      <c r="G13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="51" t="n">
+      <c r="H13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I13" s="51" t="n">
+      <c r="I13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="J13" s="51" t="n">
+      <c r="J13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="K13" s="51" t="n">
+      <c r="K13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L13" s="51" t="n">
+      <c r="L13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="51" t="n">
+      <c r="M13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="N13" s="51" t="n">
+      <c r="N13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="O13" s="51" t="n">
+      <c r="O13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="P13" s="51" t="n">
+      <c r="P13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="Q13" s="51" t="n">
+      <c r="Q13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="51" t="n">
+      <c r="R13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="S13" s="51" t="n">
+      <c r="S13" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="T13" s="52" t="n">
+      <c r="T13" s="54" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="70.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S14" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T14" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T15" s="52" t="s">
+      <c r="E15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S15" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T15" s="54" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S16" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T16" s="52" t="s">
+      <c r="E16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S16" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T16" s="54" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="G17" s="51" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="N17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="O17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="R17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S17" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="T17" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" s="62" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42"/>
-      <c r="B18" s="58" t="s">
+      <c r="E17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" s="65" customFormat="true" ht="60.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="56"/>
+      <c r="B18" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="F18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="L18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="O18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="P18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="R18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="T18" s="61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" s="53" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="63"/>
-      <c r="B19" s="18" t="s">
+      <c r="E18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" s="64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" s="55" customFormat="true" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="66"/>
+      <c r="B19" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="50" t="s">
+      <c r="M19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="P19" s="50" t="s">
+      <c r="P19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="Q19" s="50" t="s">
+      <c r="Q19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="R19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="S19" s="50" t="s">
+      <c r="S19" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="T19" s="50" t="s">
+      <c r="T19" s="52" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" s="68" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64" t="s">
+    <row r="20" s="71" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="66" t="s">
+      <c r="I20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="66" t="s">
+      <c r="J20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="K20" s="66" t="s">
+      <c r="K20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="M20" s="66" t="s">
+      <c r="M20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="66" t="n">
+      <c r="N20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="O20" s="66" t="s">
+      <c r="O20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="66" t="n">
+      <c r="P20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="Q20" s="66" t="s">
+      <c r="Q20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="R20" s="66" t="s">
+      <c r="R20" s="69" t="s">
         <v>163</v>
       </c>
-      <c r="S20" s="66" t="n">
+      <c r="S20" s="69" t="n">
         <v>2</v>
       </c>
-      <c r="T20" s="67" t="n">
+      <c r="T20" s="70" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4296,6 +4429,11 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:T4"/>
   </mergeCells>
+  <conditionalFormatting sqref="D22:D1048576,D1:D20">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4320,11 +4458,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="6" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.5668016194332"/>
+    <col collapsed="false" hidden="false" max="18" min="6" style="0" width="10.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,258 +4470,258 @@
       <c r="B2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="69"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="69"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="K5" s="72" t="s">
+      <c r="K5" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="O5" s="72" t="s">
+      <c r="O5" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="Q5" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="77" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="76" t="n">
+      <c r="C6" s="79" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="76" t="n">
+      <c r="D6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="79" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="79" t="n">
+      <c r="G6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="79" t="n">
+      <c r="H6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="79" t="n">
+      <c r="I6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="79" t="n">
+      <c r="J6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="79" t="n">
+      <c r="K6" s="82" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="77" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="80" t="n">
+      <c r="L6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="82" t="n">
+      <c r="C7" s="85" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="82" t="n">
+      <c r="D7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="85" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="85" t="n">
+      <c r="G7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="85" t="n">
+      <c r="H7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="I7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="85" t="n">
+      <c r="J7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="85" t="n">
+      <c r="K7" s="88" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="86" t="n">
+      <c r="L7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="88" t="n">
+      <c r="C8" s="91" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="88" t="n">
+      <c r="D8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="91" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="91" t="n">
+      <c r="G8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="91" t="n">
+      <c r="H8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="91" t="n">
+      <c r="I8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="91" t="n">
+      <c r="J8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="91" t="n">
+      <c r="K8" s="94" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="92" t="n">
+      <c r="L8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4619,14 +4755,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="93" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="96" width="25.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="19" min="7" style="0" width="12.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4638,496 +4772,496 @@
       <c r="C2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="35" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
     </row>
     <row r="4" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="s">
+      <c r="B4" s="99"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="s">
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
     </row>
     <row r="5" customFormat="false" ht="50.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="100" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="101" t="s">
+      <c r="B5" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="43" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="104" t="n">
+      <c r="D6" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="104" t="n">
+      <c r="E6" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="105" t="n">
+      <c r="F6" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="106" t="n">
+      <c r="G6" s="109" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="104" t="n">
+      <c r="H6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="104" t="n">
+      <c r="I6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="104" t="n">
+      <c r="J6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="104" t="n">
+      <c r="K6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="104" t="n">
+      <c r="L6" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="107" t="n">
+      <c r="M6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="107" t="n">
+      <c r="N6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="107" t="n">
+      <c r="O6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="107" t="n">
+      <c r="P6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="107" t="n">
+      <c r="Q6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="107" t="n">
+      <c r="R6" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="108" t="n">
+      <c r="S6" s="111" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="104" t="n">
+      <c r="D7" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="104" t="n">
+      <c r="E7" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="105" t="n">
+      <c r="F7" s="108" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="106" t="n">
+      <c r="G7" s="109" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="104" t="n">
+      <c r="H7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="104" t="n">
+      <c r="I7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="104" t="n">
+      <c r="J7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="104" t="n">
+      <c r="K7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="104" t="n">
+      <c r="L7" s="107" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="107" t="n">
+      <c r="M7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="107" t="n">
+      <c r="N7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="107" t="n">
+      <c r="O7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="107" t="n">
+      <c r="P7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="107" t="n">
+      <c r="Q7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="107" t="n">
+      <c r="R7" s="110" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="108" t="n">
+      <c r="S7" s="111" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="104" t="n">
+      <c r="D8" s="107" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="106" t="n">
+      <c r="E8" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="109" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="104" t="n">
+      <c r="H8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="104" t="n">
+      <c r="I8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="104" t="n">
+      <c r="J8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="104" t="n">
+      <c r="K8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="104" t="n">
+      <c r="L8" s="107" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="107" t="n">
+      <c r="M8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="107" t="n">
+      <c r="N8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="107" t="n">
+      <c r="O8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="107" t="n">
+      <c r="P8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="107" t="n">
+      <c r="Q8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="107" t="n">
+      <c r="R8" s="110" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="108" t="n">
+      <c r="S8" s="111" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="108" t="n">
+      <c r="D9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="108" t="n">
+      <c r="D10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="111" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="104" t="n">
+      <c r="D11" s="107" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="109" t="n">
+      <c r="E11" s="107" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="110" t="n">
+      <c r="H11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="110" t="n">
+      <c r="I11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="110" t="n">
+      <c r="J11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="110" t="n">
+      <c r="K11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="110" t="n">
+      <c r="L11" s="113" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="111" t="n">
+      <c r="M11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="114" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="33.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="113" t="n">
+      <c r="D12" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="113" t="n">
+      <c r="E12" s="116" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="114" t="n">
+      <c r="F12" s="117" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="N12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="O12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="R12" s="117" t="s">
-        <v>151</v>
-      </c>
-      <c r="S12" s="118" t="s">
+      <c r="G12" s="118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="R12" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="S12" s="121" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="183">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -891,17 +891,44 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coca Cola Coffee 330ml,Coke 240ml,Coca-cola 250ml Can,Coke Vanilla 330ml,</t>
+      <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coca Cola Coffee 330ml,Coke 240ml,Coca-cola 250ml Can,Coke Vanilla 330ml
+</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,88471005623958851959905876,8847100562999,8847100565495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite 330ml Can,Sprite Zero 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET,Sprite 330ml Sleek Can,Sprite 240ml Slim Can,Sprite 250ml Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561459,8847100562364,8847100563736,8851959905944,8847100562104,8847100568793,8851959905906,8847100568847</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Coca Cola 350ml
+      <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml,Fanta Orange 240ml Slim Can,Fanta Orange 250ml Can
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,
+8851959905883,8847100564799</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml,Fanta Fruit Punch 330ml Sleek Can,Fanta Fruit Punch 240ml Slim Can,Fanta Fruit Punch 250ml Can
 </t>
     </r>
   </si>
@@ -913,147 +940,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,88471005623958851959905876,8847100562999,8847100565495,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561015</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sprite 330ml Can,Sprite Zero 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET,Sprite 330ml Sleek Can,Sprite 240ml Slim Can,Sprite 250ml Can,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sprite 350ml
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561459,8847100562364,8847100563736,8851959905944,8847100562104,8847100568793,8851959905906,8847100568847,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml,Fanta Orange 240ml Slim Can,Fanta Orange 250ml Can,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Orange 350ml
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100560094,8847100561244,8847100564603,
-8851959905883,8847100564799,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561046_0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml,Fanta Fruit Punch 330ml Sleek Can,Fanta Fruit Punch 240ml Slim Can,Fanta Fruit Punch 250ml Can,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Fruit Punch 350ml
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100564061,8847100564184,8847100564061,8851959133187,8847100569011,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100561046_0
+      <t xml:space="preserve">8847100564061,8847100564184,8847100564061,8851959133187,8847100569011
 </t>
     </r>
   </si>
@@ -1141,33 +1028,6 @@
   <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
   </si>
-  <si>
-    <t xml:space="preserve">ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ក្លាហាន(Window-Klahan)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ប៊ីប៉ូស្ទ័របង្អួចទីផ្សារថ្មី ប្រយុទ្ឋ(Window-Broyuth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ទូរCBCនៅទីតាំង ខាងមុខគេ (KO Cooler First Position)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ទូរCBCបើក ប្រើប្រាស់ (KO Cooler Switch On)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ភាពសុទ្ធក្នុង ទូរCBC (KO Cooler Purity)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ចំណែកមិនសុទ្ធ ក្នុងទូរCBC (Impure KO-Cooler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ទូរCBC (KO Cooler)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ចំណែកផលិតផល ត្រជាក់(Cold SOVI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ចំណែកផលិតផល តាំងមិនត្រជាក់ (Ambient SOVI)</t>
-  </si>
 </sst>
 </file>
 
@@ -1181,7 +1041,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1304,15 +1164,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DaunPenh"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,14 +1202,8 @@
         <bgColor rgb="FFEDEDED"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="32">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1527,13 +1374,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -1561,24 +1401,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1634,7 +1460,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1879,11 +1705,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="24" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1891,20 +1717,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="25" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="26" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="27" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1915,7 +1733,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="30" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1927,10 +1745,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="5" fillId="5" borderId="16" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1939,7 +1753,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="32" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1951,7 +1765,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="33" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="3" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,7 +1777,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="34" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1971,15 +1785,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="30" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="28" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1995,10 +1805,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="14" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2011,15 +1817,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="32" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="29" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2119,31 +1921,31 @@
   </sheetPr>
   <dimension ref="1:39"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="1" sqref="C6:C12 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="85.587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="48.6315789473684"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="86.336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
@@ -34865,18 +34667,18 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C6:C12 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="51.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.1012145748988"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="22" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="22" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="22" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="22" width="3.74898785425101"/>
@@ -34886,7 +34688,7 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="22" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="22" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="22" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="22" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="22" width="4.92712550607287"/>
@@ -39094,7 +38896,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="37" t="s">
         <v>29</v>
       </c>
@@ -39153,7 +38955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
         <v>31</v>
       </c>
@@ -39212,7 +39014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
@@ -39944,14 +39746,14 @@
   </sheetPr>
   <dimension ref="B1:R8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C6:C12 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -39962,7 +39764,7 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -40103,162 +39905,162 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="62" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="61" t="n">
         <v>1.25</v>
       </c>
-      <c r="D6" s="63" t="n">
+      <c r="D6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="64" t="n">
+      <c r="E6" s="63" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="62" t="n">
+      <c r="F6" s="61" t="n">
         <v>0.75</v>
       </c>
-      <c r="G6" s="65" t="n">
+      <c r="G6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="H6" s="65" t="n">
+      <c r="H6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="J6" s="65" t="n">
+      <c r="J6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="K6" s="65" t="n">
+      <c r="K6" s="64" t="n">
         <v>0.75</v>
       </c>
-      <c r="L6" s="63" t="n">
+      <c r="L6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="63" t="n">
+      <c r="M6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="63" t="n">
+      <c r="N6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="O6" s="63" t="n">
+      <c r="O6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="63" t="n">
+      <c r="P6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" s="63" t="n">
+      <c r="Q6" s="62" t="n">
         <v>0</v>
       </c>
-      <c r="R6" s="66" t="n">
+      <c r="R6" s="65" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="67" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="68" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="66" t="n">
         <v>1.25</v>
       </c>
-      <c r="D7" s="69" t="n">
+      <c r="D7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="70" t="n">
+      <c r="E7" s="68" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="68" t="n">
+      <c r="F7" s="66" t="n">
         <v>0.75</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="69" t="n">
         <v>0.75</v>
       </c>
-      <c r="H7" s="71" t="n">
+      <c r="H7" s="69" t="n">
         <v>0.75</v>
       </c>
-      <c r="I7" s="71" t="n">
+      <c r="I7" s="69" t="n">
         <v>0.75</v>
       </c>
-      <c r="J7" s="71" t="n">
+      <c r="J7" s="69" t="n">
         <v>0.75</v>
       </c>
-      <c r="K7" s="71" t="n">
+      <c r="K7" s="69" t="n">
         <v>0.75</v>
       </c>
-      <c r="L7" s="69" t="n">
+      <c r="L7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="69" t="n">
+      <c r="M7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="69" t="n">
+      <c r="N7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="69" t="n">
+      <c r="O7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="69" t="n">
+      <c r="P7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" s="69" t="n">
+      <c r="Q7" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="R7" s="72" t="n">
+      <c r="R7" s="70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="74" t="n">
+      <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="71" t="n">
         <v>2.5</v>
       </c>
-      <c r="D8" s="75" t="n">
+      <c r="D8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="76" t="n">
+      <c r="E8" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="74" t="n">
+      <c r="F8" s="71" t="n">
         <v>1.5</v>
       </c>
-      <c r="G8" s="77" t="n">
+      <c r="G8" s="74" t="n">
         <v>1.5</v>
       </c>
-      <c r="H8" s="77" t="n">
+      <c r="H8" s="74" t="n">
         <v>1.5</v>
       </c>
-      <c r="I8" s="77" t="n">
+      <c r="I8" s="74" t="n">
         <v>1.5</v>
       </c>
-      <c r="J8" s="77" t="n">
+      <c r="J8" s="74" t="n">
         <v>1.5</v>
       </c>
-      <c r="K8" s="77" t="n">
+      <c r="K8" s="74" t="n">
         <v>1.5</v>
       </c>
-      <c r="L8" s="75" t="n">
+      <c r="L8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="75" t="n">
+      <c r="M8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="75" t="n">
+      <c r="N8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="O8" s="75" t="n">
+      <c r="O8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="75" t="n">
+      <c r="P8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" s="75" t="n">
+      <c r="Q8" s="72" t="n">
         <v>0</v>
       </c>
-      <c r="R8" s="78" t="n">
+      <c r="R8" s="75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40286,15 +40088,15 @@
   </sheetPr>
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
@@ -40306,7 +40108,7 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>
@@ -40376,7 +40178,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="53"/>
-      <c r="C4" s="79"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="55" t="s">
         <v>128</v>
       </c>
@@ -40399,13 +40201,13 @@
       <c r="S4" s="55"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="79" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="58" t="s">
@@ -40454,395 +40256,395 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="83" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="85" t="n">
+      <c r="C6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="85" t="n">
+      <c r="E6" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="86" t="n">
+      <c r="F6" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="87" t="n">
+      <c r="G6" s="83" t="n">
         <v>0.5</v>
       </c>
-      <c r="H6" s="85" t="n">
+      <c r="H6" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="I6" s="85" t="n">
+      <c r="I6" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="85" t="n">
+      <c r="J6" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="K6" s="85" t="n">
+      <c r="K6" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="L6" s="85" t="n">
+      <c r="L6" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="M6" s="88" t="n">
+      <c r="M6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="N6" s="88" t="n">
+      <c r="N6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="O6" s="88" t="n">
+      <c r="O6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="P6" s="88" t="n">
+      <c r="P6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="88" t="n">
+      <c r="Q6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="R6" s="88" t="n">
+      <c r="R6" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="S6" s="89" t="n">
+      <c r="S6" s="85" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="83" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="85" t="n">
+      <c r="C7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="85" t="n">
+      <c r="E7" s="81" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="86" t="n">
+      <c r="F7" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="87" t="n">
+      <c r="G7" s="83" t="n">
         <v>0.5</v>
       </c>
-      <c r="H7" s="85" t="n">
+      <c r="H7" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="I7" s="85" t="n">
+      <c r="I7" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="J7" s="85" t="n">
+      <c r="J7" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="K7" s="85" t="n">
+      <c r="K7" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="85" t="n">
+      <c r="L7" s="81" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="88" t="n">
+      <c r="M7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="N7" s="88" t="n">
+      <c r="N7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="88" t="n">
+      <c r="O7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="P7" s="88" t="n">
+      <c r="P7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q7" s="88" t="n">
+      <c r="Q7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="R7" s="88" t="n">
+      <c r="R7" s="84" t="n">
         <v>0.5</v>
       </c>
-      <c r="S7" s="89" t="n">
+      <c r="S7" s="85" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="83" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="85" t="n">
+      <c r="C8" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="81" t="n">
         <v>2.5</v>
       </c>
-      <c r="E8" s="85" t="n">
+      <c r="E8" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="86" t="n">
+      <c r="F8" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="87" t="n">
+      <c r="G8" s="83" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="85" t="n">
+      <c r="H8" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="85" t="n">
+      <c r="I8" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="J8" s="85" t="n">
+      <c r="J8" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="K8" s="85" t="n">
+      <c r="K8" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="L8" s="85" t="n">
+      <c r="L8" s="81" t="n">
         <v>2</v>
       </c>
-      <c r="M8" s="88" t="n">
+      <c r="M8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="N8" s="88" t="n">
+      <c r="N8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8" s="88" t="n">
+      <c r="O8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" s="88" t="n">
+      <c r="P8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q8" s="88" t="n">
+      <c r="Q8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="R8" s="88" t="n">
+      <c r="R8" s="84" t="n">
         <v>1.5</v>
       </c>
-      <c r="S8" s="89" t="n">
+      <c r="S8" s="85" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="83" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="85" t="n">
+      <c r="C9" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="85" t="n">
+      <c r="E9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="86" t="n">
+      <c r="F9" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="87" t="n">
+      <c r="G9" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="85" t="n">
+      <c r="H9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="85" t="n">
+      <c r="I9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="85" t="n">
+      <c r="J9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="85" t="n">
+      <c r="K9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="85" t="n">
+      <c r="L9" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="88" t="n">
+      <c r="M9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="88" t="n">
+      <c r="N9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="88" t="n">
+      <c r="O9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="88" t="n">
+      <c r="P9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="88" t="n">
+      <c r="Q9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="88" t="n">
+      <c r="R9" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="89" t="n">
+      <c r="S9" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="83" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="85" t="n">
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="85" t="n">
+      <c r="E10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="86" t="n">
+      <c r="F10" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="87" t="n">
+      <c r="G10" s="83" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="85" t="n">
+      <c r="H10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="85" t="n">
+      <c r="I10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="85" t="n">
+      <c r="J10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="85" t="n">
+      <c r="K10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="85" t="n">
+      <c r="L10" s="81" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="88" t="n">
+      <c r="M10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="88" t="n">
+      <c r="N10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="88" t="n">
+      <c r="O10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="88" t="n">
+      <c r="P10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="88" t="n">
+      <c r="Q10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="88" t="n">
+      <c r="R10" s="84" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="89" t="n">
+      <c r="S10" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="83" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="85" t="n">
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="81" t="n">
         <v>2.5</v>
       </c>
-      <c r="E11" s="85" t="n">
+      <c r="E11" s="81" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="86" t="n">
+      <c r="F11" s="82" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="91" t="n">
+      <c r="G11" s="86" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="92" t="n">
+      <c r="H11" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="92" t="n">
+      <c r="I11" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="J11" s="92" t="n">
+      <c r="J11" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="K11" s="92" t="n">
+      <c r="K11" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="92" t="n">
+      <c r="L11" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="92" t="n">
+      <c r="M11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="92" t="n">
+      <c r="N11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="O11" s="92" t="n">
+      <c r="O11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="92" t="n">
+      <c r="P11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" s="92" t="n">
+      <c r="Q11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="R11" s="92" t="n">
+      <c r="R11" s="87" t="n">
         <v>0</v>
       </c>
-      <c r="S11" s="93" t="n">
+      <c r="S11" s="88" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="83" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="95" t="n">
+      <c r="C12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="89" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="95" t="n">
+      <c r="E12" s="89" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="96" t="n">
+      <c r="F12" s="90" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="97" t="n">
+      <c r="G12" s="91" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="98" t="n">
+      <c r="H12" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="98" t="n">
+      <c r="I12" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="98" t="n">
+      <c r="J12" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="98" t="n">
+      <c r="K12" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="98" t="n">
+      <c r="L12" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="99" t="s">
+      <c r="M12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="N12" s="99" t="s">
+      <c r="N12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="O12" s="99" t="s">
+      <c r="O12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="P12" s="99" t="s">
+      <c r="P12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="Q12" s="99" t="s">
+      <c r="Q12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="R12" s="99" t="s">
+      <c r="R12" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="S12" s="100" t="s">
+      <c r="S12" s="94" t="s">
         <v>166</v>
       </c>
     </row>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -884,65 +884,32 @@
     <t xml:space="preserve">Club</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coca Cola Coffee 330ml,Coke 240ml,Coca-cola 250ml Can,Coke Vanilla 330ml
+    <t xml:space="preserve">Coca Cola 330ml,Coca Cola 390ml,Coca Cola Light 330ml,Coca Cola Zero 330ml Can,Coca Cola 500ml,Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coca Cola Coffee 330ml,Coca Cola 350ml
 </t>
-    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,88471005623958851959905876,8847100562999,8847100565495</t>
+    <t xml:space="preserve">8847100562746,8847100567574,8847100566898,8847100565389,8847100562715,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,847100562234_4,8847100562234_5,8847100562395,8847100561015</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprite 330ml Can,Sprite Zero 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET,Sprite 330ml Sleek Can,Sprite 240ml Slim Can,Sprite 250ml Can</t>
+    <t xml:space="preserve">Sprite 330ml Can,Sprite Zero 330ml Can,Sprite 390ml PET,Sprite 450ml PET,Sprite 500ml PET,Sprite 330ml Sleek Can,Sprite 350ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100561459,8847100562364,8847100563736,8851959905944,8847100562104,8847100568793,8851959905906,8847100568847</t>
+    <t xml:space="preserve">8847100561459,8851959905944,8847100563736,8847100562104,8847100562364,8847100568793,8847100561022</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml,Fanta Orange 240ml Slim Can,Fanta Orange 250ml Can
+    <t xml:space="preserve">Fanta Orange 330ml,Fanta Orange 390ml,Fanta Orange 500ml,Fanta Orange 350ml
 </t>
-    </r>
   </si>
   <si>
-    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,
-8851959905883,8847100564799</t>
+    <t xml:space="preserve">8847100560094,8847100561244,8847100564603,8847100561039_0</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml,Fanta Fruit Punch 330ml Sleek Can,Fanta Fruit Punch 240ml Slim Can,Fanta Fruit Punch 250ml Can
+    <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 390ml,Fanta Fruit Punch 350ml
 </t>
-    </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8847100564061,8847100564184,8847100564061,8851959133187,8847100569011
+    <t xml:space="preserve">8847100564061,8847100564184,8847100561046_0
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Fanta Redberry 330ml,Fanta Blueberry 330ml,Fanta Blueberry 390ml,Fanta Grape  330ml,Fanta Redberry 330ml,Fanta Blueberry 330ml, Fanta +C 390ml,Fanta +C 330ml
@@ -953,16 +920,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml,Mutant Green 330ml Can,Mutant Yellow 330ml Can,Mutant Yellow 400ml PET,Mutant Green 400ml PET,Mutant Red 330ml Can  Mutant Red 400ml PET,Samurai Strawberry 390 PET,Samurai Fruity 390 PET,Samurai Strawberry 330 Sleek Can,Samurai Fruity 330 Sleek Can</t>
+    <t xml:space="preserve">Samurai Strawberry 330ml,Samurai Fruity 330ml,Samurai Strawberry 480ml,Samurai Fruity 480ml,Mutant Green 330ml Can,Mutant Black 330ml Can,Mutant Green 400ml PET,Mutant Yellow 400ml PET,Mutant Red 330ml Can,Mutant Red 400ml PET,Thunder Strawberry 330ml,Thunder Strawberry 480ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566650,8847100568601,8847100568595,8847100568618,8847100565943,8847100565952,8847100566478,8847100567079,8847100566867,8847100567864</t>
+    <t xml:space="preserve">8847100566591,8847100566607,8847100566874,8847100566676,8847100566650,8847100568601,8847100568595,8847100568618,8847100565943,8847100565952,8847100561091,8847100561152</t>
   </si>
   <si>
-    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET,Dasani 550ml,Dasani Mineral 500ml</t>
+    <t xml:space="preserve">Dasani 350ml,Dasani 500ml,Dasani 1.5L PET,Dasani 550ml,Dasani Mineral 500ml,
+Dasani 550ml</t>
   </si>
   <si>
-    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8851959905999,8847100567784</t>
+    <t xml:space="preserve">8847100560025,8847100568526,8847100562111,8851959905999,8847100567784,8847100568526_0</t>
   </si>
   <si>
     <t xml:space="preserve">Aquarius 330ml Can,Aquarius 330ml Sleek Can,Aquarius 390ml PET,Aquarius Veggies 330ml Can</t>
@@ -1041,7 +1009,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1132,13 +1100,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1597,11 +1558,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,15 +1582,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1637,7 +1598,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1649,11 +1610,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1673,15 +1634,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="8" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1765,7 +1726,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="3" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1924,28 +1885,28 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="E2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="1" sqref="C6:C12 D19"/>
+      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="58.4858299595142"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="86.336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="87.0890688259109"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="3" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="1" width="9.31983805668016"/>
@@ -34667,18 +34628,18 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C6:C12 D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="22" width="3.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="22" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="22" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="22" width="3.74898785425101"/>
@@ -34688,7 +34649,7 @@
     <col collapsed="false" hidden="false" max="14" min="14" style="22" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="22" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="22" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="22" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="22" width="4.2834008097166"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="22" width="4.92712550607287"/>
@@ -38834,7 +38795,7 @@
       <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
     </row>
-    <row r="6" s="36" customFormat="true" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="36" customFormat="true" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
       <c r="B6" s="31" t="s">
         <v>22</v>
@@ -38955,7 +38916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="37" t="s">
         <v>31</v>
       </c>
@@ -39014,7 +38975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="40.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
@@ -39132,7 +39093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="37" t="s">
         <v>37</v>
       </c>
@@ -39747,13 +39708,13 @@
   <dimension ref="B1:R8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="C6:C12 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="5.24696356275304"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.6761133603239"/>
@@ -39764,7 +39725,7 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="17" style="1" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="1" width="9.31983805668016"/>
@@ -40088,15 +40049,15 @@
   </sheetPr>
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6:C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.6761133603239"/>
@@ -40108,7 +40069,7 @@
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="5.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="1" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="1" width="9.31983805668016"/>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="272">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -889,310 +889,313 @@
     <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Gold</t>
   </si>
   <si>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact._Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Stalls_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Entertainment_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-GH./Mini-Hotel_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Café Shop_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Internet/E-Game_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-KTV/Night Club_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Mobile Premix_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Massage/Spa_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Fitness Center_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Sport Club_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Drinking Stalls_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-At Work/Offices_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Cinema_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-CVS_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Court_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Hotel(4Stars Up)_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-QSR_Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Restaurants_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Stalls_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Entertainment_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-GH./Mini-Hotel_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Café Shop_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Internet/E-Game_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-KTV/Night Club_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Mobile Premix_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Massage/Spa_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Fitness Center_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Sport Club_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Drinking Stalls_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-At Work/Offices_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Cinema_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-CVS_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Court_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Hotel(4Stars Up)_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-QSR_Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Restaurants_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Stalls_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Entertainment_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-GH./Mini-Hotel_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Café Shop_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Internet/E-Game_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-KTV/Night Club_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Mobile Premix_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Massage/Spa_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Fitness Center_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Sport Club_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Drinking Stalls_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-At Work/Offices_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Cinema_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-CVS_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Food Court_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-Hotel(4Stars Up)_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KH-QSR_Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coke 330ml, Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coke 330ml_Cx24 PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100562234,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,8847100562234_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100562395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppe Soda 330ml Can, Schweppe Soda 330ml Sleek Can, Schweppe Soda 330ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100563026,8847100563897,8847100563897_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola 600ml,Coke 600ml_Cx24 PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100563637,8847100563537_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange 330ml,Fanta orange 330ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100560094,8847100567376_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 330ml Sleek Can,Fanta Fruit Punch 330ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100564061_d,8847100564061,8847100564061_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite 330ml Can,Sprite 330ml Sleek Can,Sprite 330ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561459,8847100568793,8847100568793_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuze Tea Green Tea Honey 350ml,Fuze Tea Peach Black Tea 350ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561411,8847100561404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola 1.5L,Coke 1.5L_CX6 PACK,Coke 2.25L_C X6 PACK,Coca Cola 2.25L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8935049500117,8847100561084_C,8847100560568_C,8847100560568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Orange 1.5L,Fanta Orange 2.25L,Fanta orange 1.5L_C X6 PACK,Fanta Orange 2.25L_C X6PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100560896,8847100560926,8847100560896_C,8847100560926_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Fruit Punch 1.5L,Fanta Fruit Punch 2.25L,Fanta Fruit Punch 1.5L_C X6PACK,Fanta Fruit Punch 2.25L_C X6 PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100564979,8847100562258,8847100564979_C,8847100562258_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta Blueberry 1.5L,Fanta Grape 1.5L PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100568830,8847100563149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite 1.5L,Sprite 2.25L,Sprite 1.5L_C X6 PACK,Sprite 2.25L_C X6 PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100560902,8847100560919,8847100560902_C,8847100560919_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minute Maid Grape Can 330ml,Minute Maid Refresh Apple Can,Minute Maid Grape 330ml_C X24PACK,Minute Maid Orange Mango 330ml Can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100569837,8847100562951,8847100569837_C,8847100562388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Green 400ml PET,Mutant Yellow 330ml Can,Mutant Yellow 400ml P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100566650,8847100568618,8847100568601,8847100568595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutant Red 330ml Can,Mutant Red 400ml PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100565943,8847100565952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunder Strawberry 330ml,Thunder Strawberry 480ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561091,8847100561152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100561237,8847100568960,8847100563170,8847100562272,8847100568960_C,8847100563170_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasani 500ml,Dasani 500ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100568526,8847100568526_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasani Mineral 500ml,Dasani Mineral 500ml_C X24PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100567784,8847100567784_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dasani 1.5L PET,Dasani 1.5L_C X6PACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8847100562111,8847100562111_C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
+  </si>
+  <si>
     <t xml:space="preserve">KH-Canteen-Edu/Fact_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Stalls_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Entertainment_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-GH./Mini-Hotel_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Café Shop_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Internet/E-Game_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-KTV/Night Club_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Mobile Premix_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Massage/Spa_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Fitness Center_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Sport Club_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Drinking Stalls_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-At Work/Offices_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Cinema_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-CVS_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Court_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Hotel(4Stars Up)_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-QSR_Gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Restaurants_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Stalls_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Entertainment_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-GH./Mini-Hotel_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Café Shop_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Internet/E-Game_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-KTV/Night Club_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Mobile Premix_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Massage/Spa_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Fitness Center_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Sport Club_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Drinking Stalls_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-At Work/Offices_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Cinema_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-CVS_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Court_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Hotel(4Stars Up)_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-QSR_Silver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Restaurants_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Stalls_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Entertainment_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-GH./Mini-Hotel_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Café Shop_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Internet/E-Game_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-KTV/Night Club_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Mobile Premix_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Massage/Spa_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Fitness Center_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Sport Club_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Drinking Stalls_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-At Work/Offices_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Cinema_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-CVS_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Food Court_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Hotel(4Stars Up)_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-QSR_Bronze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coke 330ml, Coke ARG 330ml,Coke BRA 330ml,Coke FRA 330ml,Coke GER 330ml,Coke POR 330ml,Coke ESP 330ml,Coke 330ml_Cx24 PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100562234,8847100562234_0,8847100562234_1,8847100562234_2,8847100562234_3,8847100562234_4,8847100562234_5,8847100562234_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100562395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schweppe Soda 330ml Can, Schweppe Soda 330ml Sleek Can, Schweppe Soda 330ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100563026,8847100563897,8847100563897_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola 600ml,Coke 600ml_Cx24 PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100563637,8847100563537_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange 330ml,Fanta orange 330ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560094,8847100567376_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Fruit Punch 330ml,Fanta Fruit Punch 330ml Sleek Can,Fanta Fruit Punch 330ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100564061_d,8847100564061,8847100564061_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite 330ml Can,Sprite 330ml Sleek Can,Sprite 330ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561459,8847100568793,8847100568793_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze Tea Green Tea Honey 350ml,Fuze Tea Peach Black Tea 350ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561411,8847100561404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola 1.5L,Coke 1.5L_CX6 PACK,Coke 2.25L_C X6 PACK,Coca Cola 2.25L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8935049500117,8847100561084_C,8847100560568_C,8847100560568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Orange 1.5L,Fanta Orange 2.25L,Fanta orange 1.5L_C X6 PACK,Fanta Orange 2.25L_C X6PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560896,8847100560926,8847100560896_C,8847100560926_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Fruit Punch 1.5L,Fanta Fruit Punch 2.25L,Fanta Fruit Punch 1.5L_C X6PACK,Fanta Fruit Punch 2.25L_C X6 PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100564979,8847100562258,8847100564979_C,8847100562258_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta Blueberry 1.5L,Fanta Grape 1.5L PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100568830,8847100563149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite 1.5L,Sprite 2.25L,Sprite 1.5L_C X6 PACK,Sprite 2.25L_C X6 PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100560902,8847100560919,8847100560902_C,8847100560919_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minute Maid Grape Can 330ml,Minute Maid Refresh Apple Can,Minute Maid Grape 330ml_C X24PACK,Minute Maid Orange Mango 330ml Can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100569837,8847100562951,8847100569837_C,8847100562388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutant Green 330ml Can,Mutant Green 400ml PET,Mutant Yellow 330ml Can,Mutant Yellow 400ml P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100566650,8847100568618,8847100568601,8847100568595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutant Red 330ml Can,Mutant Red 400ml PET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100565943,8847100565952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thunder Strawberry 330ml,Thunder Strawberry 480ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561091,8847100561152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100561237,8847100568960,8847100563170,8847100562272,8847100568960_C,8847100563170_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasani 500ml,Dasani 500ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100568526,8847100568526_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasani Mineral 500ml,Dasani Mineral 500ml_C X24PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100567784,8847100567784_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dasani 1.5L PET,Dasani 1.5L_C X6PACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8847100562111,8847100562111_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
   </si>
 </sst>
 </file>
@@ -1871,23 +1874,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.1336032388664"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="93.2995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="70.5910931174089"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.1578947368421"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="68.7692307692308"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3747,96 +3750,96 @@
   <dimension ref="1:27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="AC6" activeCellId="0" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="111.51012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="134.004048582996"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="112.582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="135.182186234818"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1022" min="87" style="22" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -12864,88 +12867,88 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="43" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -13372,7 +13375,7 @@
         <v>168</v>
       </c>
       <c r="AA5" s="49" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="AB5" s="49" t="s">
         <v>170</v>
@@ -14331,89 +14334,89 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="43" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18608,7 +18611,7 @@
         <v>168</v>
       </c>
       <c r="AB5" s="57" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="AC5" s="57" t="s">
         <v>170</v>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="271">
   <si>
     <t xml:space="preserve">Store Type</t>
   </si>
@@ -1193,9 +1193,6 @@
   </si>
   <si>
     <t xml:space="preserve">Weight Per Store Types (N/A - do not run KPI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Gold</t>
   </si>
 </sst>
 </file>
@@ -1868,29 +1865,29 @@
   </sheetPr>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.1578947368421"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.412955465587"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="70.0566801619433"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3749,97 +3746,97 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC6" activeCellId="0" sqref="AC6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC5" activeCellId="0" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="112.582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="135.182186234818"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="113.546558704453"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="136.46963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1022" min="87" style="22" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -12860,95 +12857,95 @@
   </sheetPr>
   <dimension ref="B1:CF8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA5" activeCellId="0" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="43" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -13375,7 +13372,7 @@
         <v>168</v>
       </c>
       <c r="AA5" s="49" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="AB5" s="49" t="s">
         <v>170</v>
@@ -14326,97 +14323,97 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB5" activeCellId="0" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="43" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18611,7 +18608,7 @@
         <v>168</v>
       </c>
       <c r="AB5" s="57" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="AC5" s="57" t="s">
         <v>170</v>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -949,7 +949,7 @@
     <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Silver</t>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact._Silver</t>
   </si>
   <si>
     <t xml:space="preserve">KH-Food Stalls_Silver</t>
@@ -1009,7 +1009,7 @@
     <t xml:space="preserve">KH-BBQ/Soup/Beer Gdn_Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">KH-Canteen-Edu/Fact_Bronze</t>
+    <t xml:space="preserve">KH-Canteen-Edu/Fact._Bronze</t>
   </si>
   <si>
     <t xml:space="preserve">KH-Food Stalls_Bronze</t>
@@ -1865,29 +1865,29 @@
   </sheetPr>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.6963562753036"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9554655870445"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.1336032388664"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="70.0566801619433"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3746,97 +3746,97 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AC5" activeCellId="0" sqref="AC5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AW6" activeCellId="0" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="113.546558704453"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="136.46963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="116.651821862348"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="140.113360323887"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="22" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1022" min="87" style="22" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -12857,95 +12857,95 @@
   </sheetPr>
   <dimension ref="B1:CF8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA5" activeCellId="0" sqref="AA5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AU6" activeCellId="0" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="27.9595141700405"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="60" min="60" style="43" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="15.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="85" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -14323,97 +14323,97 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB5" activeCellId="0" sqref="AB5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AV5" activeCellId="0" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="61" min="61" style="43" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="65" min="65" style="43" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="1025" min="86" style="43" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCKH/Data/Template.xlsx
+++ b/Projects/CCKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1168,7 +1168,34 @@
     <t xml:space="preserve">8847100561091,8847100561152</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Aquarius 480ml PET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Aquarius 330ml Can, Aquarius 330ml Sleek Can,Aquarius 390ml PET, Aquarius Veggies 330ml Can,Aquarius 330ml_C X24PACK, Aquarius 390ml_C X24PACK</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">8847100561237,8847100568960,8847100563170,8847100562272,8847100568960_C,8847100563170_C</t>
@@ -1207,7 +1234,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1307,6 +1334,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1512,7 +1551,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1685,19 +1724,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1733,7 +1776,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="17" fillId="4" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1871,23 +1914,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.6963562753036"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.3400809716599"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.0971659919028"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.9554655870445"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.2753036437247"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -3746,97 +3789,97 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AW6" activeCellId="0" sqref="AW6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="116.651821862348"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="140.113360323887"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="117.724696356275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="22" width="141.396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="22" width="34.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="22" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="22" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="22" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="22" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="22" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="22" min="21" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="22" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="22" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="22" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="22" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="22" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="22" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="22" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="22" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="22" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="22" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="22" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="43" min="43" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="22" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="22" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="46" min="46" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="22" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="22" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="22" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="22" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="22" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="22" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="22" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="22" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="22" width="24.5303643724696"/>
     <col collapsed="false" hidden="false" max="62" min="62" style="22" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="63" min="63" style="22" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="22" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="22" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="66" min="66" style="22" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="22" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="22" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="22" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="22" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="22" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="22" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="22" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="22" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="22" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="22" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="22" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="22" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="22" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="22" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="22" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="22" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="86" min="86" style="22" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1022" min="87" style="22" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.10526315789474"/>
   </cols>
@@ -11809,7 +11852,7 @@
       <c r="B24" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="43" t="s">
         <v>262</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -12863,90 +12906,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="85" style="43" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="44" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="44" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="44" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="44" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="44" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="44" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="44" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="44" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="44" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="44" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="44" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="44" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="44" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="44" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="44" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="44" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="44" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="44" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="44" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="85" style="44" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,429 +13163,429 @@
       <c r="CF2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46"/>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="44"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="Q5" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="R5" s="51" t="s">
+      <c r="R5" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="49" t="s">
+      <c r="S5" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="T5" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="49" t="s">
+      <c r="V5" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="49" t="s">
+      <c r="Y5" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" s="49" t="s">
+      <c r="Z5" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="AB5" s="49" t="s">
+      <c r="AB5" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" s="49" t="s">
+      <c r="AD5" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="AE5" s="49" t="s">
+      <c r="AE5" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="AF5" s="49" t="s">
+      <c r="AF5" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="AG5" s="49" t="s">
+      <c r="AG5" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="AH5" s="49" t="s">
+      <c r="AH5" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="AI5" s="49" t="s">
+      <c r="AI5" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AJ5" s="49" t="s">
+      <c r="AJ5" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="AK5" s="49" t="s">
+      <c r="AK5" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="AL5" s="49" t="s">
+      <c r="AL5" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="AM5" s="49" t="s">
+      <c r="AM5" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="AN5" s="49" t="s">
+      <c r="AN5" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="AP5" s="49" t="s">
+      <c r="AP5" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="AQ5" s="49" t="s">
+      <c r="AQ5" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="AR5" s="49" t="s">
+      <c r="AR5" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="AS5" s="49" t="s">
+      <c r="AS5" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AT5" s="49" t="s">
+      <c r="AT5" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AU5" s="49" t="s">
+      <c r="AU5" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="AV5" s="49" t="s">
+      <c r="AV5" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="AW5" s="49" t="s">
+      <c r="AW5" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="AX5" s="49" t="s">
+      <c r="AX5" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="AY5" s="49" t="s">
+      <c r="AY5" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="AZ5" s="49" t="s">
+      <c r="AZ5" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="BA5" s="49" t="s">
+      <c r="BA5" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="BB5" s="49" t="s">
+      <c r="BB5" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="BC5" s="49" t="s">
+      <c r="BC5" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="BD5" s="49" t="s">
+      <c r="BD5" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="BE5" s="49" t="s">
+      <c r="BE5" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="BF5" s="49" t="s">
+      <c r="BF5" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="BG5" s="49" t="s">
+      <c r="BG5" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="BH5" s="49" t="s">
+      <c r="BH5" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="BI5" s="49" t="s">
+      <c r="BI5" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="BK5" s="49" t="s">
+      <c r="BK5" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="BL5" s="49" t="s">
+      <c r="BL5" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="BM5" s="49" t="s">
+      <c r="BM5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="BN5" s="49" t="s">
+      <c r="BN5" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="BO5" s="49" t="s">
+      <c r="BO5" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="BP5" s="49" t="s">
+      <c r="BP5" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="BQ5" s="49" t="s">
+      <c r="BQ5" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="BR5" s="49" t="s">
+      <c r="BR5" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="BS5" s="49" t="s">
+      <c r="BS5" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="BT5" s="49" t="s">
+      <c r="BT5" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="BU5" s="49" t="s">
+      <c r="BU5" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="BV5" s="49" t="s">
+      <c r="BV5" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="BW5" s="49" t="s">
+      <c r="BW5" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="BX5" s="49" t="s">
+      <c r="BX5" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="BY5" s="49" t="s">
+      <c r="BY5" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="BZ5" s="49" t="s">
+      <c r="BZ5" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="CA5" s="49" t="s">
+      <c r="CA5" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="CB5" s="49" t="s">
+      <c r="CB5" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="CC5" s="49" t="s">
+      <c r="CC5" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="CD5" s="49" t="s">
+      <c r="CD5" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="CE5" s="49" t="s">
+      <c r="CE5" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="CF5" s="49" t="s">
+      <c r="CF5" s="50" t="s">
         <v>226</v>
       </c>
     </row>
@@ -13550,250 +13593,250 @@
       <c r="B6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="52" t="n">
+      <c r="C6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="53" t="n">
+      <c r="D6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="E6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="52" t="n">
+      <c r="F6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="52" t="n">
+      <c r="G6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="52" t="n">
+      <c r="H6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="52" t="n">
+      <c r="I6" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="53" t="n">
+      <c r="L6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="M6" s="53" t="n">
+      <c r="M6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="N6" s="53" t="n">
+      <c r="N6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="O6" s="53" t="n">
+      <c r="O6" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="P6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="54" t="n">
+      <c r="P6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN6" s="54" t="n">
+      <c r="BN6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="54" t="n">
+      <c r="BO6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="54" t="n">
+      <c r="BP6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ6" s="54" t="n">
+      <c r="BQ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR6" s="54" t="n">
+      <c r="BR6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS6" s="54" t="n">
+      <c r="BS6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT6" s="54" t="n">
+      <c r="BT6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU6" s="54" t="n">
+      <c r="BU6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV6" s="54" t="n">
+      <c r="BV6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW6" s="54" t="n">
+      <c r="BW6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX6" s="54" t="n">
+      <c r="BX6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY6" s="54" t="n">
+      <c r="BY6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ6" s="54" t="n">
+      <c r="BZ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA6" s="54" t="n">
+      <c r="CA6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB6" s="54" t="n">
+      <c r="CB6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC6" s="54" t="n">
+      <c r="CC6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD6" s="54" t="n">
+      <c r="CD6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE6" s="54" t="n">
+      <c r="CE6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF6" s="54" t="n">
+      <c r="CF6" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13801,250 +13844,250 @@
       <c r="B7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="52" t="n">
+      <c r="C7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="D7" s="53" t="n">
+      <c r="D7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="52" t="n">
+      <c r="F7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="52" t="n">
+      <c r="G7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="52" t="n">
+      <c r="H7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="52" t="n">
+      <c r="I7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="53" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="53" t="n">
+      <c r="L7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="53" t="n">
+      <c r="M7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="N7" s="53" t="n">
+      <c r="N7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="53" t="n">
+      <c r="O7" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="P7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="54" t="n">
+      <c r="P7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BN7" s="54" t="n">
+      <c r="BN7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="54" t="n">
+      <c r="BO7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP7" s="54" t="n">
+      <c r="BP7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ7" s="54" t="n">
+      <c r="BQ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR7" s="54" t="n">
+      <c r="BR7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS7" s="54" t="n">
+      <c r="BS7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT7" s="54" t="n">
+      <c r="BT7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU7" s="54" t="n">
+      <c r="BU7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV7" s="54" t="n">
+      <c r="BV7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW7" s="54" t="n">
+      <c r="BW7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX7" s="54" t="n">
+      <c r="BX7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY7" s="54" t="n">
+      <c r="BY7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ7" s="54" t="n">
+      <c r="BZ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA7" s="54" t="n">
+      <c r="CA7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB7" s="54" t="n">
+      <c r="CB7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC7" s="54" t="n">
+      <c r="CC7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD7" s="54" t="n">
+      <c r="CD7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE7" s="54" t="n">
+      <c r="CE7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF7" s="54" t="n">
+      <c r="CF7" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14052,250 +14095,250 @@
       <c r="B8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="52" t="n">
+      <c r="C8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="D8" s="53" t="n">
+      <c r="D8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="E8" s="53" t="n">
+      <c r="E8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="F8" s="52" t="n">
+      <c r="F8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="G8" s="52" t="n">
+      <c r="G8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="H8" s="52" t="n">
+      <c r="H8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="I8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52" t="n">
+      <c r="I8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="53" t="n">
         <v>3.5</v>
       </c>
-      <c r="L8" s="53" t="n">
+      <c r="L8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="M8" s="53" t="n">
+      <c r="M8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="N8" s="53" t="n">
+      <c r="N8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="O8" s="53" t="n">
+      <c r="O8" s="54" t="n">
         <v>3.5</v>
       </c>
-      <c r="P8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="53" t="n">
+      <c r="P8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="54" t="n">
         <v>2</v>
       </c>
-      <c r="S8" s="54" t="n">
+      <c r="S8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="54" t="n">
+      <c r="T8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="54" t="n">
+      <c r="U8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="54" t="n">
+      <c r="V8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="54" t="n">
+      <c r="W8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" s="54" t="n">
+      <c r="Z8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AA8" s="54" t="n">
+      <c r="AA8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AB8" s="54" t="n">
+      <c r="AB8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AC8" s="54" t="n">
+      <c r="AC8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AD8" s="54" t="n">
+      <c r="AD8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AE8" s="54" t="n">
+      <c r="AE8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AF8" s="54" t="n">
+      <c r="AF8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AG8" s="54" t="n">
+      <c r="AG8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AH8" s="54" t="n">
+      <c r="AH8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AI8" s="54" t="n">
+      <c r="AI8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AJ8" s="54" t="n">
+      <c r="AJ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AK8" s="54" t="n">
+      <c r="AK8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AL8" s="54" t="n">
+      <c r="AL8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AM8" s="54" t="n">
+      <c r="AM8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AN8" s="54" t="n">
+      <c r="AN8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AO8" s="54" t="n">
+      <c r="AO8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AP8" s="54" t="n">
+      <c r="AP8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AQ8" s="54" t="n">
+      <c r="AQ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="54" t="n">
+      <c r="AR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AT8" s="54" t="n">
+      <c r="AT8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AU8" s="54" t="n">
+      <c r="AU8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AV8" s="54" t="n">
+      <c r="AV8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AW8" s="54" t="n">
+      <c r="AW8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AX8" s="54" t="n">
+      <c r="AX8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AY8" s="54" t="n">
+      <c r="AY8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="AZ8" s="54" t="n">
+      <c r="AZ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BA8" s="54" t="n">
+      <c r="BA8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BB8" s="54" t="n">
+      <c r="BB8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BC8" s="54" t="n">
+      <c r="BC8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BD8" s="54" t="n">
+      <c r="BD8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BE8" s="54" t="n">
+      <c r="BE8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BF8" s="54" t="n">
+      <c r="BF8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BG8" s="54" t="n">
+      <c r="BG8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BH8" s="54" t="n">
+      <c r="BH8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BI8" s="54" t="n">
+      <c r="BI8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BJ8" s="54" t="n">
+      <c r="BJ8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BK8" s="54" t="n">
+      <c r="BK8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="BL8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="54" t="n">
+      <c r="BL8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14323,98 +14366,98 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AO1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AV5" activeCellId="0" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="43" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="43" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="43" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="43" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="43" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="43" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="43" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="43" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="43" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="43" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="43" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="43" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="43" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="43" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="43" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="43" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="43" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="43" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="43" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="43" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="43" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="43" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="43" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="43" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="43" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="43" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="64" min="64" style="43" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="65" min="65" style="43" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="66" min="66" style="43" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="67" min="67" style="43" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="68" min="68" style="43" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="69" min="69" style="43" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="70" min="70" style="43" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="71" min="71" style="43" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="72" min="72" style="43" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="73" min="73" style="43" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="74" min="74" style="43" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="75" min="75" style="43" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="76" min="76" style="43" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="77" min="77" style="43" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="78" min="78" style="43" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="79" min="79" style="43" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="80" min="80" style="43" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="81" min="81" style="43" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="82" min="82" style="43" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="83" min="83" style="43" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="84" min="84" style="43" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="85" min="85" style="43" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="1025" min="86" style="43" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="44" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="44" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="44" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="44" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="44" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="44" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="44" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="44" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="44" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="44" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="44" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="44" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="44" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="44" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="44" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="44" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="44" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="44" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="44" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="44" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="44" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="44" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="44" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="44" width="13.6032388663968"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="44" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="64" min="64" style="44" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="65" min="65" style="44" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="66" min="66" style="44" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="67" min="67" style="44" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="68" min="68" style="44" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="69" min="69" style="44" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="70" min="70" style="44" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="71" min="71" style="44" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="72" min="72" style="44" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="73" min="73" style="44" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="74" min="74" style="44" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="75" min="75" style="44" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="76" min="76" style="44" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="77" min="77" style="44" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="78" min="78" style="44" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="79" min="79" style="44" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="80" min="80" style="44" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="81" min="81" style="44" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="82" min="82" style="44" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="83" min="83" style="44" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="84" min="84" style="44" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="85" min="85" style="44" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="86" style="44" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16471,92 +16514,92 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="45"/>
-      <c r="BC3" s="45"/>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="45"/>
-      <c r="BK3" s="45"/>
-      <c r="BL3" s="45"/>
-      <c r="BM3" s="45"/>
-      <c r="BN3" s="45"/>
-      <c r="BO3" s="45"/>
-      <c r="BP3" s="45"/>
-      <c r="BQ3" s="45"/>
-      <c r="BR3" s="45"/>
-      <c r="BS3" s="45"/>
-      <c r="BT3" s="45"/>
-      <c r="BU3" s="45"/>
-      <c r="BV3" s="45"/>
-      <c r="BW3" s="45"/>
-      <c r="BX3" s="45"/>
-      <c r="BY3" s="45"/>
-      <c r="BZ3" s="45"/>
-      <c r="CA3" s="45"/>
-      <c r="CB3" s="45"/>
-      <c r="CC3" s="45"/>
-      <c r="CD3" s="45"/>
-      <c r="CE3" s="45"/>
-      <c r="CF3" s="45"/>
-      <c r="CG3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="46"/>
+      <c r="BP3" s="46"/>
+      <c r="BQ3" s="46"/>
+      <c r="BR3" s="46"/>
+      <c r="BS3" s="46"/>
+      <c r="BT3" s="46"/>
+      <c r="BU3" s="46"/>
+      <c r="BV3" s="46"/>
+      <c r="BW3" s="46"/>
+      <c r="BX3" s="46"/>
+      <c r="BY3" s="46"/>
+      <c r="BZ3" s="46"/>
+      <c r="CA3" s="46"/>
+      <c r="CB3" s="46"/>
+      <c r="CC3" s="46"/>
+      <c r="CD3" s="46"/>
+      <c r="CE3" s="46"/>
+      <c r="CF3" s="46"/>
+      <c r="CG3" s="46"/>
       <c r="CH3" s="0"/>
       <c r="CI3" s="0"/>
       <c r="CJ3" s="0"/>
@@ -17499,94 +17542,94 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="46" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="47"/>
+      <c r="Y4" s="47"/>
+      <c r="Z4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="46"/>
-      <c r="AU4" s="46"/>
-      <c r="AV4" s="46"/>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46"/>
-      <c r="BJ4" s="46"/>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BX4" s="46"/>
-      <c r="BY4" s="46"/>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46"/>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="47"/>
+      <c r="AV4" s="47"/>
+      <c r="AW4" s="47"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="47"/>
+      <c r="AZ4" s="47"/>
+      <c r="BA4" s="47"/>
+      <c r="BB4" s="47"/>
+      <c r="BC4" s="47"/>
+      <c r="BD4" s="47"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="47"/>
+      <c r="BG4" s="47"/>
+      <c r="BH4" s="47"/>
+      <c r="BI4" s="47"/>
+      <c r="BJ4" s="47"/>
+      <c r="BK4" s="47"/>
+      <c r="BL4" s="47"/>
+      <c r="BM4" s="47"/>
+      <c r="BN4" s="47"/>
+      <c r="BO4" s="47"/>
+      <c r="BP4" s="47"/>
+      <c r="BQ4" s="47"/>
+      <c r="BR4" s="47"/>
+      <c r="BS4" s="47"/>
+      <c r="BT4" s="47"/>
+      <c r="BU4" s="47"/>
+      <c r="BV4" s="47"/>
+      <c r="BW4" s="47"/>
+      <c r="BX4" s="47"/>
+      <c r="BY4" s="47"/>
+      <c r="BZ4" s="47"/>
+      <c r="CA4" s="47"/>
+      <c r="CB4" s="47"/>
+      <c r="CC4" s="47"/>
+      <c r="CD4" s="47"/>
+      <c r="CE4" s="47"/>
+      <c r="CF4" s="47"/>
+      <c r="CG4" s="47"/>
       <c r="CH4" s="0"/>
       <c r="CI4" s="0"/>
       <c r="CJ4" s="0"/>
@@ -18529,259 +18572,259 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="C5" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="Q5" s="57" t="s">
+      <c r="Q5" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="T5" s="57" t="s">
+      <c r="T5" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="W5" s="57" t="s">
+      <c r="W5" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="X5" s="57" t="s">
+      <c r="X5" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="Z5" s="57" t="s">
+      <c r="Z5" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" s="57" t="s">
+      <c r="AA5" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" s="57" t="s">
+      <c r="AB5" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="AC5" s="57" t="s">
+      <c r="AC5" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="AD5" s="57" t="s">
+      <c r="AD5" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="AE5" s="57" t="s">
+      <c r="AE5" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="AF5" s="57" t="s">
+      <c r="AF5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="AG5" s="57" t="s">
+      <c r="AG5" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="AH5" s="57" t="s">
+      <c r="AH5" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="AI5" s="57" t="s">
+      <c r="AI5" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="AJ5" s="57" t="s">
+      <c r="AJ5" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="AK5" s="57" t="s">
+      <c r="AK5" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="AL5" s="57" t="s">
+      <c r="AL5" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="AM5" s="57" t="s">
+      <c r="AM5" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="AN5" s="57" t="s">
+      <c r="AN5" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="AO5" s="57" t="s">
+      <c r="AO5" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="AP5" s="57" t="s">
+      <c r="AP5" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="AQ5" s="57" t="s">
+      <c r="AQ5" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="AR5" s="57" t="s">
+      <c r="AR5" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="AS5" s="57" t="s">
+      <c r="AS5" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="AT5" s="57" t="s">
+      <c r="AT5" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="AU5" s="57" t="s">
+      <c r="AU5" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="AV5" s="57" t="s">
+      <c r="AV5" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="AW5" s="57" t="s">
+      <c r="AW5" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="AX5" s="57" t="s">
+      <c r="AX5" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="AY5" s="57" t="s">
+      <c r="AY5" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="AZ5" s="57" t="s">
+      <c r="AZ5" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="BA5" s="57" t="s">
+      <c r="BA5" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="BB5" s="57" t="s">
+      <c r="BB5" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="BC5" s="57" t="s">
+      <c r="BC5" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="BD5" s="57" t="s">
+      <c r="BD5" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="BE5" s="57" t="s">
+      <c r="BE5" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="BF5" s="57" t="s">
+      <c r="BF5" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="BG5" s="57" t="s">
+      <c r="BG5" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="BH5" s="57" t="s">
+      <c r="BH5" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="BI5" s="57" t="s">
+      <c r="BI5" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="BJ5" s="57" t="s">
+      <c r="BJ5" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="BK5" s="57" t="s">
+      <c r="BK5" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="BL5" s="57" t="s">
+      <c r="BL5" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="BM5" s="57" t="s">
+      <c r="BM5" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="BN5" s="57" t="s">
+      <c r="BN5" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="BO5" s="57" t="s">
+      <c r="BO5" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="BP5" s="57" t="s">
+      <c r="BP5" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="BQ5" s="57" t="s">
+      <c r="BQ5" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="BR5" s="57" t="s">
+      <c r="BR5" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="BS5" s="57" t="s">
+      <c r="BS5" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="BT5" s="57" t="s">
+      <c r="BT5" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="BU5" s="57" t="s">
+      <c r="BU5" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="BV5" s="57" t="s">
+      <c r="BV5" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="BW5" s="57" t="s">
+      <c r="BW5" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="BX5" s="57" t="s">
+      <c r="BX5" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="BY5" s="57" t="s">
+      <c r="BY5" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="BZ5" s="57" t="s">
+      <c r="BZ5" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="CA5" s="57" t="s">
+      <c r="CA5" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="CB5" s="57" t="s">
+      <c r="CB5" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="CC5" s="57" t="s">
+      <c r="CC5" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="CD5" s="57" t="s">
+      <c r="CD5" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="CE5" s="57" t="s">
+      <c r="CE5" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="CF5" s="57" t="s">
+      <c r="CF5" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="CG5" s="57" t="s">
+      <c r="CG5" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="CH5" s="58"/>
+      <c r="CH5" s="59"/>
       <c r="CI5" s="0"/>
       <c r="CJ5" s="0"/>
       <c r="CK5" s="0"/>
@@ -19729,250 +19772,250 @@
       <c r="C6" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="59" t="n">
+      <c r="D6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="59" t="n">
+      <c r="E6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="59" t="n">
+      <c r="F6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="59" t="n">
+      <c r="G6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="59" t="n">
+      <c r="H6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="59" t="n">
+      <c r="I6" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="59" t="n">
+      <c r="J6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="60" t="n">
         <v>1.5</v>
       </c>
-      <c r="M6" s="60" t="n">
+      <c r="M6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N6" s="60" t="n">
+      <c r="N6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6" s="60" t="n">
+      <c r="O6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P6" s="60" t="n">
+      <c r="P6" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN6" s="54" t="n">
+      <c r="Q6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM6" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO6" s="54" t="n">
+      <c r="BO6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="54" t="n">
+      <c r="BP6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ6" s="54" t="n">
+      <c r="BQ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR6" s="54" t="n">
+      <c r="BR6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS6" s="54" t="n">
+      <c r="BS6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT6" s="54" t="n">
+      <c r="BT6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU6" s="54" t="n">
+      <c r="BU6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV6" s="54" t="n">
+      <c r="BV6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW6" s="54" t="n">
+      <c r="BW6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX6" s="54" t="n">
+      <c r="BX6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY6" s="54" t="n">
+      <c r="BY6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ6" s="54" t="n">
+      <c r="BZ6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA6" s="54" t="n">
+      <c r="CA6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB6" s="54" t="n">
+      <c r="CB6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC6" s="54" t="n">
+      <c r="CC6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD6" s="54" t="n">
+      <c r="CD6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE6" s="54" t="n">
+      <c r="CE6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF6" s="54" t="n">
+      <c r="CF6" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CG6" s="54" t="n">
+      <c r="CG6" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH6" s="0"/>
@@ -20923,250 +20966,250 @@
       <c r="C7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="59" t="n">
+      <c r="D7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="59" t="n">
+      <c r="E7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="59" t="n">
+      <c r="F7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="59" t="n">
+      <c r="G7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="59" t="n">
+      <c r="H7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="I7" s="59" t="n">
+      <c r="I7" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="59" t="n">
+      <c r="J7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60" t="n">
         <v>1.5</v>
       </c>
-      <c r="M7" s="60" t="n">
+      <c r="M7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N7" s="60" t="n">
+      <c r="N7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O7" s="60" t="n">
+      <c r="O7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P7" s="60" t="n">
+      <c r="P7" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN7" s="54" t="n">
+      <c r="Q7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM7" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="54" t="n">
+      <c r="BO7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BP7" s="54" t="n">
+      <c r="BP7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BQ7" s="54" t="n">
+      <c r="BQ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BR7" s="54" t="n">
+      <c r="BR7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BS7" s="54" t="n">
+      <c r="BS7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BT7" s="54" t="n">
+      <c r="BT7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BU7" s="54" t="n">
+      <c r="BU7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BV7" s="54" t="n">
+      <c r="BV7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BW7" s="54" t="n">
+      <c r="BW7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX7" s="54" t="n">
+      <c r="BX7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BY7" s="54" t="n">
+      <c r="BY7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="BZ7" s="54" t="n">
+      <c r="BZ7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA7" s="54" t="n">
+      <c r="CA7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CB7" s="54" t="n">
+      <c r="CB7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CC7" s="54" t="n">
+      <c r="CC7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CD7" s="54" t="n">
+      <c r="CD7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CE7" s="54" t="n">
+      <c r="CE7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF7" s="54" t="n">
+      <c r="CF7" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="CG7" s="54" t="n">
+      <c r="CG7" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH7" s="0"/>
@@ -22117,250 +22160,250 @@
       <c r="C8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" s="60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" s="60" t="n">
+      <c r="D8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="T8" s="54" t="n">
+      <c r="T8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U8" s="54" t="n">
+      <c r="U8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V8" s="54" t="n">
+      <c r="V8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W8" s="54" t="n">
+      <c r="W8" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="X8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="54" t="n">
+      <c r="X8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA8" s="54" t="n">
+      <c r="AA8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB8" s="54" t="n">
+      <c r="AB8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC8" s="54" t="n">
+      <c r="AC8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD8" s="54" t="n">
+      <c r="AD8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE8" s="54" t="n">
+      <c r="AE8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF8" s="54" t="n">
+      <c r="AF8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG8" s="54" t="n">
+      <c r="AG8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH8" s="54" t="n">
+      <c r="AH8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI8" s="54" t="n">
+      <c r="AI8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ8" s="54" t="n">
+      <c r="AJ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK8" s="54" t="n">
+      <c r="AK8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL8" s="54" t="n">
+      <c r="AL8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AM8" s="54" t="n">
+      <c r="AM8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN8" s="54" t="n">
+      <c r="AN8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO8" s="54" t="n">
+      <c r="AO8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP8" s="54" t="n">
+      <c r="AP8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ8" s="54" t="n">
+      <c r="AQ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR8" s="54" t="n">
+      <c r="AR8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT8" s="54" t="n">
+      <c r="AS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU8" s="54" t="n">
+      <c r="AU8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV8" s="54" t="n">
+      <c r="AV8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AW8" s="54" t="n">
+      <c r="AW8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX8" s="54" t="n">
+      <c r="AX8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY8" s="54" t="n">
+      <c r="AY8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ8" s="54" t="n">
+      <c r="AZ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BA8" s="54" t="n">
+      <c r="BA8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB8" s="54" t="n">
+      <c r="BB8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BC8" s="54" t="n">
+      <c r="BC8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BD8" s="54" t="n">
+      <c r="BD8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE8" s="54" t="n">
+      <c r="BE8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BF8" s="54" t="n">
+      <c r="BF8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG8" s="54" t="n">
+      <c r="BG8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH8" s="54" t="n">
+      <c r="BH8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI8" s="54" t="n">
+      <c r="BI8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BJ8" s="54" t="n">
+      <c r="BJ8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BK8" s="54" t="n">
+      <c r="BK8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BL8" s="54" t="n">
+      <c r="BL8" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="54" t="n">
+      <c r="BM8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF8" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG8" s="55" t="n">
         <v>1</v>
       </c>
       <c r="CH8" s="0"/>
@@ -23303,260 +23346,260 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" s="61" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="62" t="s">
+    <row r="9" s="62" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="64" t="n">
+      <c r="D9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="64" t="n">
+      <c r="E9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="F9" s="64" t="n">
+      <c r="F9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="64" t="n">
+      <c r="G9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="J9" s="64" t="n">
+      <c r="J9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="K9" s="64" t="n">
+      <c r="K9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="64" t="n">
+      <c r="L9" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="65" t="n">
+      <c r="M9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="65" t="n">
+      <c r="N9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="65" t="n">
+      <c r="O9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="65" t="n">
+      <c r="P9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" s="65" t="n">
+      <c r="Q9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="R9" s="65" t="n">
+      <c r="R9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="S9" s="65" t="n">
+      <c r="S9" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="T9" s="66" t="n">
+      <c r="T9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="U9" s="66" t="n">
+      <c r="U9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="66" t="n">
+      <c r="V9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="W9" s="66" t="n">
+      <c r="W9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="X9" s="66" t="n">
+      <c r="X9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="Y9" s="66" t="n">
+      <c r="Y9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="Z9" s="66" t="n">
+      <c r="Z9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="66" t="n">
+      <c r="AA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="66" t="n">
+      <c r="AB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="66" t="n">
+      <c r="AC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="66" t="n">
+      <c r="AD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="66" t="n">
+      <c r="AE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="66" t="n">
+      <c r="AF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="66" t="n">
+      <c r="AG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="66" t="n">
+      <c r="AH9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="66" t="n">
+      <c r="AI9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="66" t="n">
+      <c r="AJ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="66" t="n">
+      <c r="AK9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="66" t="n">
+      <c r="AL9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="66" t="n">
+      <c r="AM9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="66" t="n">
+      <c r="AN9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="66" t="n">
+      <c r="AO9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="66" t="n">
+      <c r="AP9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AQ9" s="66" t="n">
+      <c r="AQ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AR9" s="66" t="n">
+      <c r="AR9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="66" t="n">
+      <c r="AS9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="66" t="n">
+      <c r="AT9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="66" t="n">
+      <c r="AU9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="66" t="n">
+      <c r="AV9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="66" t="n">
+      <c r="AW9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="66" t="n">
+      <c r="AX9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="66" t="n">
+      <c r="AY9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="66" t="n">
+      <c r="AZ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BA9" s="66" t="n">
+      <c r="BA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BB9" s="66" t="n">
+      <c r="BB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BC9" s="66" t="n">
+      <c r="BC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BD9" s="66" t="n">
+      <c r="BD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BE9" s="66" t="n">
+      <c r="BE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BF9" s="66" t="n">
+      <c r="BF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BG9" s="66" t="n">
+      <c r="BG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BH9" s="66" t="n">
+      <c r="BH9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BI9" s="66" t="n">
+      <c r="BI9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BJ9" s="66" t="n">
+      <c r="BJ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BK9" s="66" t="n">
+      <c r="BK9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BL9" s="66" t="n">
+      <c r="BL9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BM9" s="66" t="n">
+      <c r="BM9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BN9" s="66" t="n">
+      <c r="BN9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BO9" s="66" t="n">
+      <c r="BO9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BP9" s="66" t="n">
+      <c r="BP9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BQ9" s="66" t="n">
+      <c r="BQ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BR9" s="66" t="n">
+      <c r="BR9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BS9" s="66" t="n">
+      <c r="BS9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BT9" s="66" t="n">
+      <c r="BT9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BU9" s="66" t="n">
+      <c r="BU9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BV9" s="66" t="n">
+      <c r="BV9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BW9" s="66" t="n">
+      <c r="BW9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BX9" s="66" t="n">
+      <c r="BX9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BY9" s="66" t="n">
+      <c r="BY9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="BZ9" s="66" t="n">
+      <c r="BZ9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CA9" s="66" t="n">
+      <c r="CA9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CB9" s="66" t="n">
+      <c r="CB9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CC9" s="66" t="n">
+      <c r="CC9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CD9" s="66" t="n">
+      <c r="CD9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CE9" s="66" t="n">
+      <c r="CE9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CF9" s="66" t="n">
+      <c r="CF9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CG9" s="66" t="n">
+      <c r="CG9" s="67" t="n">
         <v>0</v>
       </c>
-      <c r="CH9" s="61" t="n">
+      <c r="CH9" s="62" t="n">
         <f aca="false">SUM(D9,CG9)</f>
         <v>0</v>
       </c>
@@ -23568,250 +23611,250 @@
       <c r="C10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="59" t="n">
+      <c r="D10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="59" t="n">
+      <c r="E10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="59" t="n">
+      <c r="F10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="59" t="n">
+      <c r="G10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="H10" s="59" t="n">
+      <c r="H10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="59" t="n">
+      <c r="I10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="59" t="n">
+      <c r="J10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="59" t="n">
+      <c r="K10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="59" t="n">
+      <c r="L10" s="60" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="60" t="n">
+      <c r="M10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="60" t="n">
+      <c r="N10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="O10" s="60" t="n">
+      <c r="O10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="60" t="n">
+      <c r="P10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" s="60" t="n">
+      <c r="Q10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="60" t="n">
+      <c r="R10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="S10" s="60" t="n">
+      <c r="S10" s="61" t="n">
         <v>0</v>
       </c>
-      <c r="T10" s="54" t="n">
+      <c r="T10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="U10" s="54" t="n">
+      <c r="U10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="54" t="n">
+      <c r="V10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="W10" s="54" t="n">
+      <c r="W10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="X10" s="54" t="n">
+      <c r="X10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="Y10" s="54" t="n">
+      <c r="Y10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="Z10" s="54" t="n">
+      <c r="Z10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AA10" s="54" t="n">
+      <c r="AA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AB10" s="54" t="n">
+      <c r="AB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" s="54" t="n">
+      <c r="AC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AD10" s="54" t="n">
+      <c r="AD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" s="54" t="n">
+      <c r="AE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AF10" s="54" t="n">
+      <c r="AF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AG10" s="54" t="n">
+      <c r="AG10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AH10" s="54" t="n">
+      <c r="AH10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AI10" s="54" t="n">
+      <c r="AI10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" s="54" t="n">
+      <c r="AJ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AK10" s="54" t="n">
+      <c r="AK10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AL10" s="54" t="n">
+      <c r="AL10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AM10" s="54" t="n">
+      <c r="AM10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AN10" s="54" t="n">
+      <c r="AN10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AO10" s="54" t="n">
+      <c r="AO10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" s="54" t="n">
+      <c r="AP10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" s="54" t="n">
+      <c r="AQ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AR10" s="54" t="n">
+      <c r="AR10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" s="54" t="n">
+      <c r="AS10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" s="54" t="n">
+      <c r="AT10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AU10" s="54" t="n">
+      <c r="AU10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AV10" s="54" t="n">
+      <c r="AV10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AW10" s="54" t="n">
+      <c r="AW10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AX10" s="54" t="n">
+      <c r="AX10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AY10" s="54" t="n">
+      <c r="AY10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="AZ10" s="54" t="n">
+      <c r="AZ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BA10" s="54" t="n">
+      <c r="BA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BB10" s="54" t="n">
+      <c r="BB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BC10" s="54" t="n">
+      <c r="BC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BD10" s="54" t="n">
+      <c r="BD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BE10" s="54" t="n">
+      <c r="BE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BF10" s="54" t="n">
+      <c r="BF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BG10" s="54" t="n">
+      <c r="BG10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BH10" s="54" t="n">
+      <c r="BH10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BI10" s="54" t="n">
+      <c r="BI10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BJ10" s="54" t="n">
+      <c r="BJ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BK10" s="54" t="n">
+      <c r="BK10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BL10" s="54" t="n">
+      <c r="BL10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BM10" s="54" t="n">
+      <c r="BM10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BN10" s="54" t="n">
+      <c r="BN10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BO10" s="54" t="n">
+      <c r="BO10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BP10" s="54" t="n">
+      <c r="BP10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BQ10" s="54" t="n">
+      <c r="BQ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BR10" s="54" t="n">
+      <c r="BR10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BS10" s="54" t="n">
+      <c r="BS10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BT10" s="54" t="n">
+      <c r="BT10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BU10" s="54" t="n">
+      <c r="BU10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BV10" s="54" t="n">
+      <c r="BV10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BW10" s="54" t="n">
+      <c r="BW10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BX10" s="54" t="n">
+      <c r="BX10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BY10" s="54" t="n">
+      <c r="BY10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="BZ10" s="54" t="n">
+      <c r="BZ10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CA10" s="54" t="n">
+      <c r="CA10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CB10" s="54" t="n">
+      <c r="CB10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CC10" s="54" t="n">
+      <c r="CC10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CD10" s="54" t="n">
+      <c r="CD10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CE10" s="54" t="n">
+      <c r="CE10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CF10" s="54" t="n">
+      <c r="CF10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="CG10" s="54" t="n">
+      <c r="CG10" s="55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23822,250 +23865,250 @@
       <c r="C11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="67" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" s="67" t="n">
+      <c r="D11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="T11" s="54" t="n">
+      <c r="T11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="U11" s="54" t="n">
+      <c r="U11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="V11" s="54" t="n">
+      <c r="V11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="54" t="n">
+      <c r="W11" s="55" t="n">
         <v>2</v>
       </c>
-      <c r="X11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="54" t="n">
+      <c r="X11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AA11" s="54" t="n">
+      <c r="AA11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AB11" s="54" t="n">
+      <c r="AB11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AC11" s="54" t="n">
+      <c r="AC11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD11" s="54" t="n">
+      <c r="AD11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AE11" s="54" t="n">
+      <c r="AE11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF11" s="54" t="n">
+      <c r="AF11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG11" s="54" t="n">
+      <c r="AG11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AH11" s="54" t="n">
+      <c r="AH11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI11" s="54" t="n">
+      <c r="AI11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AJ11" s="54" t="n">
+      <c r="AJ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AK11" s="54" t="n">
+      <c r="AK11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AL11" s="54" t="n">
+      <c r="AL11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AM11" s="54" t="n">
+      <c r="AM11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AN11" s="54" t="n">
+      <c r="AN11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AO11" s="54" t="n">
+      <c r="AO11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AP11" s="54" t="n">
+      <c r="AP11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AQ11" s="54" t="n">
+      <c r="AQ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AR11" s="54" t="n">
+      <c r="AR11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="54" t="n">
+      <c r="AS11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU11" s="54" t="n">
+      <c r="AU11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV11" s="54" t="n">
+      <c r="AV11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AW11" s="54" t="n">
+      <c r="AW11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AX11" s="54" t="n">
+      <c r="AX11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AY11" s="54" t="n">
+      <c r="AY11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="AZ11" s="54" t="n">
+      <c r="AZ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BA11" s="54" t="n">
+      <c r="BA11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BB11" s="54" t="n">
+      <c r="BB11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BC11" s="54" t="n">
+      <c r="BC11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BD11" s="54" t="n">
+      <c r="BD11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BE11" s="54" t="n">
+      <c r="BE11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BF11" s="54" t="n">
+      <c r="BF11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BG11" s="54" t="n">
+      <c r="BG11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BH11" s="54" t="n">
+      <c r="BH11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI11" s="54" t="n">
+      <c r="BI11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BJ11" s="54" t="n">
+      <c r="BJ11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BK11" s="54" t="n">
+      <c r="BK11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BL11" s="54" t="n">
+      <c r="BL11" s="55" t="n">
         <v>1.5</v>
       </c>
-      <c r="BM11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF11" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG11" s="54" t="n">
+      <c r="BM11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG11" s="55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -24076,250 +24119,250 @@
       <c r="C12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="59" t="n">
+      <c r="D12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="59" t="n">
+      <c r="E12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="59" t="n">
+      <c r="F12" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="67" t="n">
+      <c r="G12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="67" t="n">
+      <c r="H12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="67" t="n">
+      <c r="I12" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="J12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="67" t="n">
+      <c r="J12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="68" t="n">
         <v>1.5</v>
       </c>
-      <c r="M12" s="60" t="n">
+      <c r="M12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="N12" s="60" t="n">
+      <c r="N12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="O12" s="60" t="n">
+      <c r="O12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="P12" s="60" t="n">
+      <c r="P12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="U12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF12" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG12" s="54" t="n">
+      <c r="Q12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG12" s="55" t="n">
         <v>1</v>
       </c>
     </row>
